--- a/FileManager.xlsx
+++ b/FileManager.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1_bak" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -329,18 +330,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:H43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
-  <cols>
-    <col width="47.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="66.9140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="11.25" bestFit="1" customWidth="1" min="6" max="8"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -387,7 +383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>.gitignore</t>
+          <t>tgitchangelist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -396,159 +392,143 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>.gitignore</t>
+          <t>.git\tgitchangelist</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1928</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1651717927.734727</v>
+        <v>1651729118.770299</v>
       </c>
       <c r="G2" t="n">
-        <v>1651717927.734727</v>
+        <v>1651729118.770299</v>
       </c>
       <c r="H2" t="n">
-        <v>1651717927.734727</v>
+        <v>1651729118.770299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DataManager</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>.py</t>
-        </is>
-      </c>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DataManager.py</t>
+          <t>design</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1651720302.894995</v>
+        <v>1651719445.382145</v>
       </c>
       <c r="G3" t="n">
-        <v>1651720252.308062</v>
+        <v>1651719662.321841</v>
       </c>
       <c r="H3" t="n">
-        <v>1651720302.894995</v>
+        <v>1651719662.321841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FileManager</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>.py</t>
-        </is>
-      </c>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FileManager.py</t>
+          <t>test</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1623</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1651720291.683419</v>
+        <v>1651718652.009073</v>
       </c>
       <c r="G4" t="n">
-        <v>1651725647.38673</v>
+        <v>1651718720.33845</v>
       </c>
       <c r="H4" t="n">
-        <v>1651725647.38673</v>
+        <v>1651718720.33845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FileManager</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>.xlsx</t>
-        </is>
-      </c>
+          <t>__pycache__</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FileManager.xlsx</t>
+          <t>__pycache__</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7998</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1651725962.824998</v>
+        <v>1651722869.369296</v>
       </c>
       <c r="G5" t="n">
-        <v>1651729035.238634</v>
+        <v>1651747396.635707</v>
       </c>
       <c r="H5" t="n">
-        <v>1651729035.238634</v>
+        <v>1651747396.635707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Main</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>.py</t>
-        </is>
-      </c>
+          <t>.gitignore</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Main.py</t>
+          <t>.gitignore</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>563</v>
+        <v>1928</v>
       </c>
       <c r="F6" t="n">
-        <v>1651720252.308062</v>
+        <v>1651717927.734727</v>
       </c>
       <c r="G6" t="n">
-        <v>1651728822.849653</v>
+        <v>1651717927.734727</v>
       </c>
       <c r="H6" t="n">
-        <v>1651728822.849653</v>
+        <v>1651717927.734727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>README</t>
+          <t>DataManager</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>.md</t>
+          <t>.py</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -556,26 +536,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>README.md</t>
+          <t>DataManager.py</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1651719500.471479</v>
+        <v>1651720302.894995</v>
       </c>
       <c r="G7" t="n">
-        <v>1651719500.471479</v>
+        <v>1651720252.308062</v>
       </c>
       <c r="H7" t="n">
-        <v>1651719500.471479</v>
+        <v>1651720302.894995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XlManager</t>
+          <t>FileManager</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,486 +568,462 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XlManager.py</t>
+          <t>FileManager.py</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>997</v>
+        <v>2328</v>
       </c>
       <c r="F8" t="n">
-        <v>1651720269.176984</v>
+        <v>1651720291.683419</v>
       </c>
       <c r="G8" t="n">
-        <v>1651728456.631766</v>
+        <v>1651746365.651853</v>
       </c>
       <c r="H8" t="n">
-        <v>1651728456.631766</v>
+        <v>1651746365.651853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>config</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>FileManager</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>.xlsx</t>
+        </is>
+      </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>.git\config</t>
+          <t>FileManager.xlsx</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>375</v>
+        <v>10453</v>
       </c>
       <c r="F9" t="n">
-        <v>1651719496.014072</v>
+        <v>1651725962.824998</v>
       </c>
       <c r="G9" t="n">
-        <v>1651719496.019094</v>
+        <v>1651747022.591369</v>
       </c>
       <c r="H9" t="n">
-        <v>1651719496.019094</v>
+        <v>1651747022.591369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>.git\description</t>
+          <t>Main.py</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="F10" t="n">
-        <v>1651717923.62025</v>
+        <v>1651720252.308062</v>
       </c>
       <c r="G10" t="n">
-        <v>1651717923.62025</v>
+        <v>1651728822.849653</v>
       </c>
       <c r="H10" t="n">
-        <v>1651717923.62025</v>
+        <v>1651728822.849653</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>README</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>.md</t>
+        </is>
+      </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>.git\HEAD</t>
+          <t>README.md</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>933</v>
       </c>
       <c r="F11" t="n">
-        <v>1651717927.716728</v>
+        <v>1651719500.471479</v>
       </c>
       <c r="G11" t="n">
-        <v>1651717927.717725</v>
+        <v>1651719500.471479</v>
       </c>
       <c r="H11" t="n">
-        <v>1651717927.717725</v>
+        <v>1651719500.471479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>XlManager</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>.git\index</t>
+          <t>XlManager.py</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>217</v>
+        <v>1250</v>
       </c>
       <c r="F12" t="n">
-        <v>1651719500.470446</v>
+        <v>1651720269.176984</v>
       </c>
       <c r="G12" t="n">
-        <v>1651719500.47244</v>
+        <v>1651747391.84381</v>
       </c>
       <c r="H12" t="n">
-        <v>1651719500.47244</v>
+        <v>1651747391.84381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>packed-refs</t>
+          <t>hooks</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>.git\packed-refs</t>
+          <t>.git\hooks</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1651717927.706755</v>
+        <v>1651717923.623317</v>
       </c>
       <c r="G13" t="n">
-        <v>1651717927.707752</v>
+        <v>1651717923.634092</v>
       </c>
       <c r="H13" t="n">
-        <v>1651717927.707752</v>
+        <v>1651717927.736754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>applypatch-msg</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>.git\hooks\applypatch-msg.sample</t>
+          <t>.git\info</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1651717923.624098</v>
+        <v>1651717923.635092</v>
       </c>
       <c r="G14" t="n">
-        <v>1651717923.624098</v>
+        <v>1651717923.636087</v>
       </c>
       <c r="H14" t="n">
-        <v>1651717923.624098</v>
+        <v>1651718022.506611</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>commit-msg</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>.git\hooks\commit-msg.sample</t>
+          <t>.git\logs</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1651717923.624098</v>
+        <v>1651717927.711741</v>
       </c>
       <c r="G15" t="n">
-        <v>1651717923.6251</v>
+        <v>1651717927.721813</v>
       </c>
       <c r="H15" t="n">
-        <v>1651717923.6251</v>
+        <v>1651717927.721813</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fsmonitor-watchman</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>objects</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>.git\hooks\fsmonitor-watchman.sample</t>
+          <t>.git\objects</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3327</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1651717923.626054</v>
+        <v>1651717923.654146</v>
       </c>
       <c r="G16" t="n">
-        <v>1651717923.626054</v>
+        <v>1651729116.105406</v>
       </c>
       <c r="H16" t="n">
-        <v>1651717923.626054</v>
+        <v>1651729116.139316</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>post-update</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>remotes</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>.git\hooks\post-update.sample</t>
+          <t>.git\refs\remotes</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1651717923.628107</v>
+        <v>1651717927.710745</v>
       </c>
       <c r="G17" t="n">
-        <v>1651717923.628107</v>
+        <v>1651717927.710745</v>
       </c>
       <c r="H17" t="n">
-        <v>1651717923.628107</v>
+        <v>1651717927.716728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pre-applypatch</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>COMMIT_EDITMSG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>.git\hooks\pre-applypatch.sample</t>
+          <t>.git\COMMIT_EDITMSG</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>424</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>1651717923.629106</v>
+        <v>1651729116.101417</v>
       </c>
       <c r="G18" t="n">
-        <v>1651717923.629106</v>
+        <v>1651729116.103412</v>
       </c>
       <c r="H18" t="n">
-        <v>1651717923.629106</v>
+        <v>1651729116.103412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pre-commit</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>config</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>.git\hooks\pre-commit.sample</t>
+          <t>.git\config</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1638</v>
+        <v>375</v>
       </c>
       <c r="F19" t="n">
-        <v>1651717923.629106</v>
+        <v>1651719496.014072</v>
       </c>
       <c r="G19" t="n">
-        <v>1651717923.630103</v>
+        <v>1651719496.019094</v>
       </c>
       <c r="H19" t="n">
-        <v>1651717923.630103</v>
+        <v>1651719496.019094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pre-push</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>.git\hooks\pre-push.sample</t>
+          <t>.git\description</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1348</v>
+        <v>73</v>
       </c>
       <c r="F20" t="n">
-        <v>1651717923.630103</v>
+        <v>1651717923.62025</v>
       </c>
       <c r="G20" t="n">
-        <v>1651717923.6311</v>
+        <v>1651717923.62025</v>
       </c>
       <c r="H20" t="n">
-        <v>1651717923.6311</v>
+        <v>1651717923.62025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pre-rebase</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>.git\hooks\pre-rebase.sample</t>
+          <t>.git\HEAD</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4898</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>1651717923.6311</v>
+        <v>1651717927.716728</v>
       </c>
       <c r="G21" t="n">
-        <v>1651717923.632097</v>
+        <v>1651717927.717725</v>
       </c>
       <c r="H21" t="n">
-        <v>1651717923.632097</v>
+        <v>1651717927.717725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pre-receive</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>.git\hooks\pre-receive.sample</t>
+          <t>.git\index</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>544</v>
+        <v>1514</v>
       </c>
       <c r="F22" t="n">
-        <v>1651717923.632097</v>
+        <v>1651729115.818665</v>
       </c>
       <c r="G22" t="n">
-        <v>1651717923.632097</v>
+        <v>1651729116.095433</v>
       </c>
       <c r="H22" t="n">
-        <v>1651717923.632097</v>
+        <v>1651729116.095433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prepare-commit-msg</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>.sample</t>
-        </is>
-      </c>
+          <t>packed-refs</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>.git\hooks\prepare-commit-msg.sample</t>
+          <t>.git\packed-refs</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1492</v>
+        <v>112</v>
       </c>
       <c r="F23" t="n">
-        <v>1651717923.633095</v>
+        <v>1651717927.706755</v>
       </c>
       <c r="G23" t="n">
-        <v>1651717923.633095</v>
+        <v>1651717927.707752</v>
       </c>
       <c r="H23" t="n">
-        <v>1651717923.633095</v>
+        <v>1651717927.707752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>update</t>
+          <t>applypatch-msg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1080,143 +1036,159 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>.git\hooks\update.sample</t>
+          <t>.git\hooks\applypatch-msg.sample</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3610</v>
+        <v>478</v>
       </c>
       <c r="F24" t="n">
-        <v>1651717923.634092</v>
+        <v>1651717923.624098</v>
       </c>
       <c r="G24" t="n">
-        <v>1651717923.634092</v>
+        <v>1651717923.624098</v>
       </c>
       <c r="H24" t="n">
-        <v>1651717923.634092</v>
+        <v>1651717923.624098</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>exclude</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>commit-msg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>.git\info\exclude</t>
+          <t>.git\hooks\commit-msg.sample</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>240</v>
+        <v>896</v>
       </c>
       <c r="F25" t="n">
-        <v>1651717923.636087</v>
+        <v>1651717923.624098</v>
       </c>
       <c r="G25" t="n">
-        <v>1651717923.636087</v>
+        <v>1651717923.6251</v>
       </c>
       <c r="H25" t="n">
-        <v>1651717923.636087</v>
+        <v>1651717923.6251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>fsmonitor-watchman</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>.git\logs\HEAD</t>
+          <t>.git\hooks\fsmonitor-watchman.sample</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>180</v>
+        <v>3327</v>
       </c>
       <c r="F26" t="n">
-        <v>1651717927.721813</v>
+        <v>1651717923.626054</v>
       </c>
       <c r="G26" t="n">
-        <v>1651717927.721813</v>
+        <v>1651717923.626054</v>
       </c>
       <c r="H26" t="n">
-        <v>1651717927.721813</v>
+        <v>1651717923.626054</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>post-update</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>.git\logs\refs\heads\main</t>
+          <t>.git\hooks\post-update.sample</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F27" t="n">
-        <v>1651717927.722713</v>
+        <v>1651717923.628107</v>
       </c>
       <c r="G27" t="n">
-        <v>1651717927.722713</v>
+        <v>1651717923.628107</v>
       </c>
       <c r="H27" t="n">
-        <v>1651717927.722713</v>
+        <v>1651717923.628107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>pre-applypatch</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>.git\logs\refs\remotes\origin\HEAD</t>
+          <t>.git\hooks\pre-applypatch.sample</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="F28" t="n">
-        <v>1651717927.712739</v>
+        <v>1651717923.629106</v>
       </c>
       <c r="G28" t="n">
-        <v>1651717927.71573</v>
+        <v>1651717923.629106</v>
       </c>
       <c r="H28" t="n">
-        <v>1651717927.71573</v>
+        <v>1651717923.629106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+          <t>pre-commit</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>.idx</t>
+          <t>.sample</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1224,31 +1196,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.idx</t>
+          <t>.git\hooks\pre-commit.sample</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1268</v>
+        <v>1638</v>
       </c>
       <c r="F29" t="n">
-        <v>1651717927.524431</v>
+        <v>1651717923.629106</v>
       </c>
       <c r="G29" t="n">
-        <v>1651717927.524431</v>
+        <v>1651717923.630103</v>
       </c>
       <c r="H29" t="n">
-        <v>1651717927.524431</v>
+        <v>1651717923.630103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+          <t>pre-push</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>.pack</t>
+          <t>.sample</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1256,87 +1228,95 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.pack</t>
+          <t>.git\hooks\pre-push.sample</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2460</v>
+        <v>1348</v>
       </c>
       <c r="F30" t="n">
-        <v>1651717927.511358</v>
+        <v>1651717923.630103</v>
       </c>
       <c r="G30" t="n">
-        <v>1651717927.524431</v>
+        <v>1651717923.6311</v>
       </c>
       <c r="H30" t="n">
-        <v>1651717927.524431</v>
+        <v>1651717923.6311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>main</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>pre-rebase</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>.git\refs\heads\main</t>
+          <t>.git\hooks\pre-rebase.sample</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41</v>
+        <v>4898</v>
       </c>
       <c r="F31" t="n">
-        <v>1651717927.71972</v>
+        <v>1651717923.6311</v>
       </c>
       <c r="G31" t="n">
-        <v>1651717927.720717</v>
+        <v>1651717923.632097</v>
       </c>
       <c r="H31" t="n">
-        <v>1651717927.720717</v>
+        <v>1651717923.632097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HEAD</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>pre-receive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>.git\refs\remotes\origin\HEAD</t>
+          <t>.git\hooks\pre-receive.sample</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>544</v>
       </c>
       <c r="F32" t="n">
-        <v>1651717927.710745</v>
+        <v>1651717923.632097</v>
       </c>
       <c r="G32" t="n">
-        <v>1651717927.71573</v>
+        <v>1651717923.632097</v>
       </c>
       <c r="H32" t="n">
-        <v>1651717927.71573</v>
+        <v>1651717923.632097</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>prepare-commit-msg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>.html</t>
+          <t>.sample</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1344,31 +1324,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>design\design.html</t>
+          <t>.git\hooks\prepare-commit-msg.sample</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>18436</v>
+        <v>1492</v>
       </c>
       <c r="F33" t="n">
-        <v>1651719662.321841</v>
+        <v>1651717923.633095</v>
       </c>
       <c r="G33" t="n">
-        <v>1651728992.112171</v>
+        <v>1651717923.633095</v>
       </c>
       <c r="H33" t="n">
-        <v>1651728992.112171</v>
+        <v>1651717923.633095</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>update</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>.md</t>
+          <t>.sample</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1376,279 +1356,4578 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>design\design.md</t>
+          <t>.git\hooks\update.sample</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1666</v>
+        <v>3610</v>
       </c>
       <c r="F34" t="n">
-        <v>1651719461.26943</v>
+        <v>1651717923.634092</v>
       </c>
       <c r="G34" t="n">
-        <v>1651728992.04934</v>
+        <v>1651717923.634092</v>
       </c>
       <c r="H34" t="n">
-        <v>1651728992.04934</v>
+        <v>1651717923.634092</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>test\1.txt</t>
+          <t>.git\info\exclude</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F35" t="n">
-        <v>1651718696.647034</v>
+        <v>1651717923.636087</v>
       </c>
       <c r="G35" t="n">
-        <v>1651718696.647034</v>
+        <v>1651717923.636087</v>
       </c>
       <c r="H35" t="n">
-        <v>1651718696.647034</v>
+        <v>1651717923.636087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>heads</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>test\2.txt</t>
+          <t>.git\logs\refs\heads</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1651718702.677533</v>
+        <v>1651717927.722713</v>
       </c>
       <c r="G36" t="n">
-        <v>1651718702.677533</v>
+        <v>1651717927.722713</v>
       </c>
       <c r="H36" t="n">
-        <v>1651718702.677533</v>
+        <v>1651717927.722713</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>test\f1\1.txt</t>
+          <t>.git\logs\HEAD</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="F37" t="n">
-        <v>1651718725.383355</v>
+        <v>1651717927.721813</v>
       </c>
       <c r="G37" t="n">
-        <v>1651718725.383355</v>
+        <v>1651729116.143341</v>
       </c>
       <c r="H37" t="n">
-        <v>1651718725.383355</v>
+        <v>1651729116.143341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>remotes</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>test\f1\2.txt</t>
+          <t>.git\logs\refs\remotes</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1651718732.082339</v>
+        <v>1651717927.712739</v>
       </c>
       <c r="G38" t="n">
-        <v>1651718732.082339</v>
+        <v>1651717927.712739</v>
       </c>
       <c r="H38" t="n">
-        <v>1651718732.082339</v>
+        <v>1651717927.712739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="b">
         <v>0</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>test\f2\1.txt</t>
+          <t>.git\logs\refs\heads\main</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="F39" t="n">
-        <v>1651718755.103461</v>
+        <v>1651717927.722713</v>
       </c>
       <c r="G39" t="n">
-        <v>1651718755.103461</v>
+        <v>1651729116.144304</v>
       </c>
       <c r="H39" t="n">
-        <v>1651718755.103461</v>
+        <v>1651729116.144304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>.txt</t>
-        </is>
-      </c>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>test\f2\f3\f4\1.txt</t>
+          <t>.git\logs\refs\remotes\origin</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1651723343.249571</v>
+        <v>1651717927.712739</v>
       </c>
       <c r="G40" t="n">
-        <v>1651723343.249571</v>
+        <v>1651729124.636704</v>
       </c>
       <c r="H40" t="n">
-        <v>1651723343.249571</v>
+        <v>1651743995.840333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FileManager.cpython-37</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>.pyc</t>
-        </is>
-      </c>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="b">
         <v>0</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>__pycache__\FileManager.cpython-37.pyc</t>
+          <t>.git\logs\refs\remotes\origin\HEAD</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1193</v>
+        <v>180</v>
       </c>
       <c r="F41" t="n">
-        <v>1651725657.228036</v>
+        <v>1651717927.712739</v>
       </c>
       <c r="G41" t="n">
-        <v>1651725657.228036</v>
+        <v>1651717927.71573</v>
       </c>
       <c r="H41" t="n">
-        <v>1651725657.228036</v>
+        <v>1651717927.71573</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\remotes\origin\main</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>142</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1651729124.636704</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1651729124.647675</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1651729124.647675</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>.git\objects\05</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1651729115.819662</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1651729115.860553</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1651729115.860553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>.git\objects\29</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1651729115.482057</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1651729115.482057</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2e</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>.git\objects\2e</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1651729115.56783</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1651729115.584827</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1651729115.584827</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>.git\objects\32</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1651729115.97425</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1651729115.97425</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>.git\objects\34</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1651729115.90643</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1651729115.940341</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1651729115.940341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>.git\objects\37</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1651729115.86155</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1651729115.90643</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1651729115.90643</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6d</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>.git\objects\6d</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1651729116.095433</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1651729116.095433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>.git\objects\a7</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1651729116.043066</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1651729116.043066</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>.git\objects\b4</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1651729115.371844</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1651729115.464105</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1651729115.464105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>b5</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>.git\objects\b5</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1651729116.140314</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1651729116.140314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>.git\objects\c3</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1651729115.482057</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1651729115.515967</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1651729115.515967</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>c6</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>.git\objects\c6</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1651729115.515967</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1651729115.550873</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1651729115.550873</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>.git\objects\cf</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1651729115.975246</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1651729116.009155</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1651729116.009155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>e6</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>.git\objects\e6</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1651729114.990897</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1651729115.369849</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1651729115.369849</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>.git\objects\f1</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1651729115.55187</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1651729115.56783</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1651729115.56783</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>.git\objects\info</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pack</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>.git\objects\pack</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1651717927.73069</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1651717932.320625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>eef7b05fb707376c5fa381b2efe8f55d8fc7f3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>.git\objects\05\eef7b05fb707376c5fa381b2efe8f55d8fc7f3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>82</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1651729115.820659</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1651729115.821657</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1651729115.821657</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0559e2a8579cbb60ade6ab023ed172504263af</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>.git\objects\29\0559e2a8579cbb60ade6ab023ed172504263af</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>6529</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>db44385b22a213eafaacfee97cabb88d3323b9</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>.git\objects\2e\db44385b22a213eafaacfee97cabb88d3323b9</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>811</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>183fb61d2ed76b8320ddab9ce57bcf2057056c</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>.git\objects\32\183fb61d2ed76b8320ddab9ce57bcf2057056c</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>44</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1e54913a3a43069f2927cc0f703e5a9f730df1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>.git\objects\34\1e54913a3a43069f2927cc0f703e5a9f730df1</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>e0c822b2ed7db5f1c422b9258808e4fb64aaf3</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>.git\objects\37\e0c822b2ed7db5f1c422b9258808e4fb64aaf3</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>55</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>b58e0dccaf3e03c120599b36dd1d2ed2204135</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>.git\objects\6d\b58e0dccaf3e03c120599b36dd1d2ed2204135</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>307</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cc466f380664724a229214d42854293346915b</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>.git\objects\a7\cc466f380664724a229214d42854293346915b</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>110</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>99bbbf0a3fb92ebb2caf8bf6a9ea90b9a3b59d</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>.git\objects\b4\99bbbf0a3fb92ebb2caf8bf6a9ea90b9a3b59d</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>652</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>139931dc9cf42546563e15c1585186d338f6cb</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>.git\objects\b5\139931dc9cf42546563e15c1585186d338f6cb</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>189</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5e6f1101c9628790833954cf3278d71f8a4591</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>.git\objects\c3\5e6f1101c9628790833954cf3278d71f8a4591</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>348</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0d3f8c167523c082dca2a9e7a39791316b6f0d</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>.git\objects\c6\0d3f8c167523c082dca2a9e7a39791316b6f0d</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>517</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9230d72064420086c19c208d2feaebdb6fde21</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>.git\objects\cf\9230d72064420086c19c208d2feaebdb6fde21</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>79</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9de29bb2d1d6434b8b29ae775ad8c2e48c5391</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>.git\objects\e6\9de29bb2d1d6434b8b29ae775ad8c2e48c5391</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1651729114.990897</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1651729115</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1651729115</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>c1b16c08e48880536a7dcc5300cb54f99d1232</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>.git\objects\f1\c1b16c08e48880536a7dcc5300cb54f99d1232</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>.idx</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.idx</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1268</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>.pack</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.pack</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2460</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1651717927.511358</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1651717927.524431</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>heads</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>.git\refs\heads</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1651717923.639081</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1651729116.144304</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1651729116.144304</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>.git\refs\tags</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>.git\refs\heads\main</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>41</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1651729116.142309</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1651729116.143341</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1651729116.143341</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1651729124.648669</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1651729124.648669</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin\HEAD</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>30</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1651717927.71573</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1651717927.71573</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin\main</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>41</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1651729124.634712</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1651729124.636704</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1651729124.636704</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>.html</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>design\design.html</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>18436</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1651719662.321841</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1651728992.112171</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1651728992.112171</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>.md</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>design\design.md</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1651719461.26943</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1651728992.04934</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1651728992.04934</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>test\f1</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1651718707.805776</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1651718734.194987</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1651718734.194987</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>f2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>test\f2</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1651718718.442988</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1651723332.247631</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1651723332.247631</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>test\1.txt</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>test\2.txt</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>test\f1\1.txt</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>test\f1\2.txt</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>f3</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>test\f2\f3</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1651723329.449342</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1651723339.491677</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1651723339.491677</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>test\f2\1.txt</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>f4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>test\f2\f3\f4</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1651723336.595517</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1651723344.840905</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1651723344.840905</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>test\f2\f3\f4\1.txt</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FileManager.cpython-37</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>.pyc</t>
+        </is>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>__pycache__\FileManager.cpython-37.pyc</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>XlManager.cpython-37</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>.pyc</t>
         </is>
       </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>__pycache__\XlManager.cpython-37.pyc</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1231</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1651747396.630721</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1651747396.631718</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1651747396.631718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>扩展名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>是文件夹</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>文件路径</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>文件大小</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>修改时间</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>访问时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tgitchangelist</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>.git\tgitchangelist</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1651729118.770299</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1651729118.770299</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1651729118.770299</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1651719445.382145</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1651719662.321841</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1651719662.321841</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1651718652.009073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1651718720.33845</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1651718720.33845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>__pycache__</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>__pycache__</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1651722869.369296</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1651747020.132849</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1651747020.132849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>.gitignore</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>.gitignore</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1928</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1651717927.734727</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1651717927.734727</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1651717927.734727</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DataManager</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DataManager.py</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1651720302.894995</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1651720252.308062</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1651720302.894995</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FileManager</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FileManager.py</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2328</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1651720291.683419</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1651746365.651853</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1651746365.651853</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FileManager</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>.xlsx</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FileManager.xlsx</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>8006</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1651725962.824998</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1651746176.170237</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1651746176.170237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Main.py</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>563</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1651720252.308062</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1651728822.849653</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1651728822.849653</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>README</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>.md</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>README.md</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>933</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1651719500.471479</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1651719500.471479</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1651719500.471479</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>XlManager</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>.py</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>XlManager.py</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1651720269.176984</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1651747014.563534</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1651747014.563534</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>.git\hooks</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1651717923.623317</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1651717923.634092</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1651717927.736754</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>.git\info</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1651717923.635092</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1651717923.636087</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1651718022.506611</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>logs</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>.git\logs</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1651717927.711741</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1651717927.721813</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1651717927.721813</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>objects</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>.git\objects</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1651717923.654146</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1651729116.139316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>remotes</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1651717927.716728</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>COMMIT_EDITMSG</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>.git\COMMIT_EDITMSG</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1651729116.101417</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1651729116.103412</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1651729116.103412</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>config</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>.git\config</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1651719496.014072</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1651719496.019094</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1651719496.019094</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>.git\description</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1651717923.62025</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1651717923.62025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1651717923.62025</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>.git\HEAD</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>21</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1651717927.716728</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1651717927.717725</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1651717927.717725</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>.git\index</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1514</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1651729115.818665</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1651729116.095433</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1651729116.095433</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>packed-refs</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>.git\packed-refs</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>112</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1651717927.706755</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1651717927.707752</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1651717927.707752</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>applypatch-msg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>.git\hooks\applypatch-msg.sample</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>478</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1651717923.624098</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1651717923.624098</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1651717923.624098</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>commit-msg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>.git\hooks\commit-msg.sample</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>896</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1651717923.624098</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1651717923.6251</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1651717923.6251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fsmonitor-watchman</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>.git\hooks\fsmonitor-watchman.sample</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3327</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1651717923.626054</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1651717923.626054</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1651717923.626054</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>post-update</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>.git\hooks\post-update.sample</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>189</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1651717923.628107</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1651717923.628107</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1651717923.628107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>pre-applypatch</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>.git\hooks\pre-applypatch.sample</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>424</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1651717923.629106</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1651717923.629106</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1651717923.629106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pre-commit</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>.git\hooks\pre-commit.sample</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1651717923.629106</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1651717923.630103</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1651717923.630103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>pre-push</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>.git\hooks\pre-push.sample</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1348</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1651717923.630103</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1651717923.6311</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1651717923.6311</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pre-rebase</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>.git\hooks\pre-rebase.sample</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4898</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1651717923.6311</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1651717923.632097</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1651717923.632097</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pre-receive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>.git\hooks\pre-receive.sample</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>544</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1651717923.632097</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1651717923.632097</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1651717923.632097</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>prepare-commit-msg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>.git\hooks\prepare-commit-msg.sample</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1492</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1651717923.633095</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1651717923.633095</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1651717923.633095</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>.sample</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>.git\hooks\update.sample</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3610</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1651717923.634092</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1651717923.634092</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1651717923.634092</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>exclude</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>.git\info\exclude</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>240</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1651717923.636087</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1651717923.636087</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1651717923.636087</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>heads</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\heads</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1651717927.722713</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1651717927.722713</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1651717927.722713</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>.git\logs\HEAD</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>343</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1651717927.721813</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1651729116.143341</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1651729116.143341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>remotes</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\remotes</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1651717927.712739</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1651717927.712739</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1651717927.712739</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\heads\main</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>343</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1651717927.722713</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1651729116.144304</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1651729116.144304</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\remotes\origin</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1651717927.712739</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1651729124.636704</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1651743995.840333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>.git\logs\refs\remotes\origin\HEAD</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>180</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1651717927.712739</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1651717927.71573</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1651717927.71573</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
       <c r="C42" t="b">
         <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>.git\logs\refs\remotes\origin\main</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>142</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1651729124.636704</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1651729124.647675</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1651729124.647675</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>.git\objects\05</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1651729115.819662</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1651729115.860553</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1651729115.860553</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>.git\objects\29</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1651729115.482057</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1651729115.482057</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2e</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>.git\objects\2e</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1651729115.56783</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1651729115.584827</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1651729115.584827</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>.git\objects\32</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1651729115.97425</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1651729115.97425</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>.git\objects\34</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1651729115.90643</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1651729115.940341</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1651729115.940341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>.git\objects\37</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1651729115.86155</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1651729115.90643</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1651729115.90643</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6d</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>.git\objects\6d</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1651729116.095433</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1651729116.095433</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>a7</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>.git\objects\a7</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1651729116.043066</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1651729116.043066</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>b4</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>.git\objects\b4</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1651729115.371844</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1651729115.464105</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1651729115.464105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>b5</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>.git\objects\b5</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1651729116.140314</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1651729116.140314</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>.git\objects\c3</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1651729115.482057</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1651729115.515967</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1651729115.515967</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>c6</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>.git\objects\c6</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1651729115.515967</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1651729115.550873</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1651729115.550873</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cf</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>.git\objects\cf</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1651729115.975246</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1651729116.009155</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1651729116.009155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>e6</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>.git\objects\e6</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1651729114.990897</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1651729115.369849</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1651729115.369849</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>.git\objects\f1</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1651729115.55187</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1651729115.56783</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1651729115.56783</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>.git\objects\info</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1651717923.655138</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>pack</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>.git\objects\pack</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1651717923.655138</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1651717927.73069</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1651717932.320625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>eef7b05fb707376c5fa381b2efe8f55d8fc7f3</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>.git\objects\05\eef7b05fb707376c5fa381b2efe8f55d8fc7f3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>82</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1651729115.820659</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1651729115.821657</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1651729115.821657</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0559e2a8579cbb60ade6ab023ed172504263af</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>.git\objects\29\0559e2a8579cbb60ade6ab023ed172504263af</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>6529</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1651729115.465102</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>db44385b22a213eafaacfee97cabb88d3323b9</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>.git\objects\2e\db44385b22a213eafaacfee97cabb88d3323b9</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>811</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1651729115.568827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>183fb61d2ed76b8320ddab9ce57bcf2057056c</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>.git\objects\32\183fb61d2ed76b8320ddab9ce57bcf2057056c</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>44</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1651729115.941338</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1e54913a3a43069f2927cc0f703e5a9f730df1</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>.git\objects\34\1e54913a3a43069f2927cc0f703e5a9f730df1</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>50</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1651729115.907427</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>e0c822b2ed7db5f1c422b9258808e4fb64aaf3</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>.git\objects\37\e0c822b2ed7db5f1c422b9258808e4fb64aaf3</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>55</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1651729115.862547</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>b58e0dccaf3e03c120599b36dd1d2ed2204135</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>.git\objects\6d\b58e0dccaf3e03c120599b36dd1d2ed2204135</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>307</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1651729116.044064</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>cc466f380664724a229214d42854293346915b</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>.git\objects\a7\cc466f380664724a229214d42854293346915b</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>110</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1651729116.010154</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>99bbbf0a3fb92ebb2caf8bf6a9ea90b9a3b59d</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>.git\objects\b4\99bbbf0a3fb92ebb2caf8bf6a9ea90b9a3b59d</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>652</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1651729115.393332</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>139931dc9cf42546563e15c1585186d338f6cb</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>.git\objects\b5\139931dc9cf42546563e15c1585186d338f6cb</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>189</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1651729116.105406</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>5e6f1101c9628790833954cf3278d71f8a4591</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>.git\objects\c3\5e6f1101c9628790833954cf3278d71f8a4591</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>348</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1651729115.483054</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0d3f8c167523c082dca2a9e7a39791316b6f0d</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>.git\objects\c6\0d3f8c167523c082dca2a9e7a39791316b6f0d</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>517</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1651729115.516963</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9230d72064420086c19c208d2feaebdb6fde21</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>.git\objects\cf\9230d72064420086c19c208d2feaebdb6fde21</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>79</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1651729115.976243</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9de29bb2d1d6434b8b29ae775ad8c2e48c5391</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>.git\objects\e6\9de29bb2d1d6434b8b29ae775ad8c2e48c5391</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>15</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1651729114.990897</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1651729115</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1651729115</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>c1b16c08e48880536a7dcc5300cb54f99d1232</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>.git\objects\f1\c1b16c08e48880536a7dcc5300cb54f99d1232</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5013</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1651729115.552867</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>.idx</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.idx</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1268</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1651717927.524431</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>.pack</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>.git\objects\pack\pack-70bc825c76111529241e4cd3e4a6902ee3b79ad0.pack</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2460</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1651717927.511358</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1651717927.524431</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1651717927.524431</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>heads</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>.git\refs\heads</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1651717923.639081</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1651729116.144304</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1651729116.144304</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>.git\refs\tags</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1651717923.63974</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>.git\refs\heads\main</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>41</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1651729116.142309</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1651729116.143341</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1651729116.143341</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1651729124.648669</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1651729124.648669</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HEAD</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin\HEAD</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>30</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1651717927.710745</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1651717927.71573</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1651717927.71573</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>.git\refs\remotes\origin\main</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>41</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1651729124.634712</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1651729124.636704</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1651729124.636704</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>.html</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>design\design.html</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>18436</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1651719662.321841</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1651728992.112171</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1651728992.112171</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>.md</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>design\design.md</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1651719461.26943</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1651728992.04934</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1651728992.04934</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>f1</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>test\f1</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1651718707.805776</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1651718734.194987</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1651718734.194987</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>f2</t>
+        </is>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>test\f2</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1651718718.442988</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1651723332.247631</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1651723332.247631</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>test\1.txt</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1651718696.647034</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>test\2.txt</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1651718702.677533</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>test\f1\1.txt</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1651718725.383355</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>test\f1\2.txt</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1651718732.082339</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>f3</t>
+        </is>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>test\f2\f3</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1651723329.449342</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1651723339.491677</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1651723339.491677</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>test\f2\1.txt</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1651718755.103461</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>f4</t>
+        </is>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>test\f2\f3\f4</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1651723336.595517</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1651723344.840905</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1651723344.840905</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>.txt</t>
+        </is>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>test\f2\f3\f4\1.txt</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1651723343.249571</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FileManager.cpython-37</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>.pyc</t>
+        </is>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>__pycache__\FileManager.cpython-37.pyc</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1651746984.120172</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>XlManager.cpython-37</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>.pyc</t>
+        </is>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>__pycache__\XlManager.cpython-37.pyc</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>1129</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1651728634.442753</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1651728634.442753</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1651728634.442753</v>
+      <c r="E96" t="n">
+        <v>1171</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1651747020.130854</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1651747020.130854</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1651747020.130854</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FileManager.xlsx
+++ b/FileManager.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1_bak" sheetId="2" r:id="rId2"/>
-    <sheet name="配置" sheetId="3" r:id="rId3"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="config" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>文件名</t>
   </si>
@@ -56,18 +55,30 @@
     <t>__pycache__</t>
   </si>
   <si>
+    <t>ConfManager</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>ConfManager.py</t>
+  </si>
+  <si>
     <t>DataManager</t>
   </si>
   <si>
-    <t>py</t>
-  </si>
-  <si>
     <t>DataManager.py</t>
   </si>
   <si>
     <t>FileManager</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>FileManager.json</t>
+  </si>
+  <si>
     <t>FileManager.py</t>
   </si>
   <si>
@@ -158,12 +169,18 @@
     <t>test\f2\f3\f4\1.txt</t>
   </si>
   <si>
+    <t>ConfManager.cpython-37</t>
+  </si>
+  <si>
+    <t>pyc</t>
+  </si>
+  <si>
+    <t>__pycache__\ConfManager.cpython-37.pyc</t>
+  </si>
+  <si>
     <t>FileManager.cpython-37</t>
   </si>
   <si>
-    <t>pyc</t>
-  </si>
-  <si>
     <t>__pycache__\FileManager.cpython-37.pyc</t>
   </si>
   <si>
@@ -171,24 +188,6 @@
   </si>
   <si>
     <t>__pycache__\XlManager.cpython-37.pyc</t>
-  </si>
-  <si>
-    <t>.py</t>
-  </si>
-  <si>
-    <t>.xlsx</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>.html</t>
-  </si>
-  <si>
-    <t>.txt</t>
-  </si>
-  <si>
-    <t>.pyc</t>
   </si>
 </sst>
 </file>
@@ -238,7 +237,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -524,9 +523,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -619,10 +618,10 @@
         <v>1651722869.3692961</v>
       </c>
       <c r="G4">
-        <v>1651761930.814615</v>
+        <v>1651897365.648257</v>
       </c>
       <c r="H4">
-        <v>1651761930.814615</v>
+        <v>1651897365.6492879</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,16 +638,16 @@
         <v>13</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="F5">
-        <v>1651720302.894995</v>
+        <v>1651720283.583035</v>
       </c>
       <c r="G5">
-        <v>1651720252.3080621</v>
+        <v>1651897003.4320509</v>
       </c>
       <c r="H5">
-        <v>1651720302.894995</v>
+        <v>1651897003.4320509</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -665,47 +664,47 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1651720291.683419</v>
+        <v>1651720302.894995</v>
       </c>
       <c r="G6">
-        <v>1651761882.63958</v>
+        <v>1651720252.3080621</v>
       </c>
       <c r="H6">
-        <v>1651761882.63958</v>
+        <v>1651720302.894995</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>12036</v>
+        <v>93</v>
       </c>
       <c r="F7">
-        <v>1651725962.8249979</v>
+        <v>1651895553.7350121</v>
       </c>
       <c r="G7">
-        <v>1651761440.672446</v>
+        <v>1651895964.0843921</v>
       </c>
       <c r="H7">
-        <v>1651761440.672446</v>
+        <v>1651895964.0843921</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -717,47 +716,47 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>642</v>
+        <v>3753</v>
       </c>
       <c r="F8">
-        <v>1651720252.3080621</v>
+        <v>1651720291.683419</v>
       </c>
       <c r="G8">
-        <v>1651750227.018867</v>
+        <v>1651892561.994159</v>
       </c>
       <c r="H8">
-        <v>1651750227.018867</v>
+        <v>1651892561.994159</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>933</v>
+        <v>12216</v>
       </c>
       <c r="F9">
-        <v>1651719500.4714789</v>
+        <v>1651725962.8249979</v>
       </c>
       <c r="G9">
-        <v>1651719500.4714789</v>
+        <v>1651799263.878197</v>
       </c>
       <c r="H9">
-        <v>1651719500.4714789</v>
+        <v>1651799263.878197</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -766,24 +765,24 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1304</v>
+        <v>713</v>
       </c>
       <c r="F10">
-        <v>1651720269.1769841</v>
+        <v>1651720252.3080621</v>
       </c>
       <c r="G10">
-        <v>1651747469.347358</v>
+        <v>1651897248.7360389</v>
       </c>
       <c r="H10">
-        <v>1651747469.347358</v>
+        <v>1651897248.7360389</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -795,342 +794,420 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>18436</v>
+        <v>933</v>
       </c>
       <c r="F11">
-        <v>1651719662.321841</v>
+        <v>1651719500.4714789</v>
       </c>
       <c r="G11">
-        <v>1651728992.1121709</v>
+        <v>1651719500.4714789</v>
       </c>
       <c r="H11">
-        <v>1651728992.1121709</v>
+        <v>1651719500.4714789</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1666</v>
+        <v>1304</v>
       </c>
       <c r="F12">
-        <v>1651719461.2694299</v>
+        <v>1651720269.1769841</v>
       </c>
       <c r="G12">
-        <v>1651728992.04934</v>
+        <v>1651892581.3734989</v>
       </c>
       <c r="H12">
-        <v>1651728992.04934</v>
+        <v>1651892581.3734989</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>18629</v>
       </c>
       <c r="F13">
-        <v>1651718707.8057759</v>
+        <v>1651719662.321841</v>
       </c>
       <c r="G13">
-        <v>1651718734.1949871</v>
+        <v>1651896844.510406</v>
       </c>
       <c r="H13">
-        <v>1651718734.1949871</v>
+        <v>1651896844.510406</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="F14">
-        <v>1651718718.4429879</v>
+        <v>1651719461.2694299</v>
       </c>
       <c r="G14">
-        <v>1651723332.2476311</v>
+        <v>1651896844.366796</v>
       </c>
       <c r="H14">
-        <v>1651723332.2476311</v>
+        <v>1651896844.366796</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1651718696.6470339</v>
+        <v>1651718707.8057759</v>
       </c>
       <c r="G15">
-        <v>1651718696.6470339</v>
+        <v>1651718734.1949871</v>
       </c>
       <c r="H15">
-        <v>1651718696.6470339</v>
+        <v>1651718734.1949871</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1651718702.6775329</v>
+        <v>1651718718.4429879</v>
       </c>
       <c r="G16">
-        <v>1651718702.6775329</v>
+        <v>1651723332.2476311</v>
       </c>
       <c r="H16">
-        <v>1651718702.6775329</v>
+        <v>1651723332.2476311</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1651718725.3833549</v>
+        <v>1651718696.6470339</v>
       </c>
       <c r="G17">
-        <v>1651718725.3833549</v>
+        <v>1651718696.6470339</v>
       </c>
       <c r="H17">
-        <v>1651718725.3833549</v>
+        <v>1651718696.6470339</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1651718732.082339</v>
+        <v>1651718702.6775329</v>
       </c>
       <c r="G18">
-        <v>1651718732.082339</v>
+        <v>1651718702.6775329</v>
       </c>
       <c r="H18">
-        <v>1651718732.082339</v>
+        <v>1651718702.6775329</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1651723329.449342</v>
+        <v>1651718725.3833549</v>
       </c>
       <c r="G19">
-        <v>1651723339.491677</v>
+        <v>1651718725.3833549</v>
       </c>
       <c r="H19">
-        <v>1651723339.491677</v>
+        <v>1651718725.3833549</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1651718755.103461</v>
+        <v>1651718732.082339</v>
       </c>
       <c r="G20">
-        <v>1651718755.103461</v>
+        <v>1651718732.082339</v>
       </c>
       <c r="H20">
-        <v>1651718755.103461</v>
+        <v>1651718732.082339</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1651723336.5955169</v>
+        <v>1651723329.449342</v>
       </c>
       <c r="G21">
-        <v>1651723344.840905</v>
+        <v>1651723339.491677</v>
       </c>
       <c r="H21">
-        <v>1651723344.840905</v>
+        <v>1651723339.491677</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1651723343.2495711</v>
+        <v>1651718755.103461</v>
       </c>
       <c r="G22">
-        <v>1651723343.2495711</v>
+        <v>1651718755.103461</v>
       </c>
       <c r="H22">
-        <v>1651723343.2495711</v>
+        <v>1651718755.103461</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
         <v>46</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
       <c r="E23">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1651761930.813617</v>
+        <v>1651723336.5955169</v>
       </c>
       <c r="G23">
-        <v>1651761930.813617</v>
+        <v>1651723344.840905</v>
       </c>
       <c r="H23">
-        <v>1651761930.813617</v>
+        <v>1651723344.840905</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1651723343.2495711</v>
+      </c>
+      <c r="G24">
+        <v>1651723343.2495711</v>
+      </c>
+      <c r="H24">
+        <v>1651723343.2495711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="E24">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>1600</v>
+      </c>
+      <c r="F25">
+        <v>1651897365.644304</v>
+      </c>
+      <c r="G25">
+        <v>1651897365.6452579</v>
+      </c>
+      <c r="H25">
+        <v>1651897365.6452579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>2261</v>
+      </c>
+      <c r="F26">
+        <v>1651893247.4505329</v>
+      </c>
+      <c r="G26">
+        <v>1651893247.4505329</v>
+      </c>
+      <c r="H26">
+        <v>1651893247.4505329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
         <v>1231</v>
       </c>
-      <c r="F24">
-        <v>1651759043.2238851</v>
-      </c>
-      <c r="G24">
-        <v>1651759043.22489</v>
-      </c>
-      <c r="H24">
-        <v>1651759043.22489</v>
+      <c r="F27">
+        <v>1651893244.88798</v>
+      </c>
+      <c r="G27">
+        <v>1651893244.8889771</v>
+      </c>
+      <c r="H27">
+        <v>1651893244.8889771</v>
       </c>
     </row>
   </sheetData>
@@ -1141,626 +1218,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1651719445.3821449</v>
-      </c>
-      <c r="G2">
-        <v>1651719662.321841</v>
-      </c>
-      <c r="H2">
-        <v>1651719662.321841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1651718652.009073</v>
-      </c>
-      <c r="G3">
-        <v>1651718720.33845</v>
-      </c>
-      <c r="H3">
-        <v>1651718720.33845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1651722869.3692961</v>
-      </c>
-      <c r="G4">
-        <v>1651761438.3330719</v>
-      </c>
-      <c r="H4">
-        <v>1651761438.3341279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1651720302.894995</v>
-      </c>
-      <c r="G5">
-        <v>1651720252.3080621</v>
-      </c>
-      <c r="H5">
-        <v>1651720302.894995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>3177</v>
-      </c>
-      <c r="F6">
-        <v>1651720291.683419</v>
-      </c>
-      <c r="G6">
-        <v>1651761420.10973</v>
-      </c>
-      <c r="H6">
-        <v>1651761420.10973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>11063</v>
-      </c>
-      <c r="F7">
-        <v>1651725962.8249979</v>
-      </c>
-      <c r="G7">
-        <v>1651760872.728965</v>
-      </c>
-      <c r="H7">
-        <v>1651760872.728965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>642</v>
-      </c>
-      <c r="F8">
-        <v>1651720252.3080621</v>
-      </c>
-      <c r="G8">
-        <v>1651750227.018867</v>
-      </c>
-      <c r="H8">
-        <v>1651750227.018867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>933</v>
-      </c>
-      <c r="F9">
-        <v>1651719500.4714789</v>
-      </c>
-      <c r="G9">
-        <v>1651719500.4714789</v>
-      </c>
-      <c r="H9">
-        <v>1651719500.4714789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1304</v>
-      </c>
-      <c r="F10">
-        <v>1651720269.1769841</v>
-      </c>
-      <c r="G10">
-        <v>1651747469.347358</v>
-      </c>
-      <c r="H10">
-        <v>1651747469.347358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>18436</v>
-      </c>
-      <c r="F11">
-        <v>1651719662.321841</v>
-      </c>
-      <c r="G11">
-        <v>1651728992.1121709</v>
-      </c>
-      <c r="H11">
-        <v>1651728992.1121709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1666</v>
-      </c>
-      <c r="F12">
-        <v>1651719461.2694299</v>
-      </c>
-      <c r="G12">
-        <v>1651728992.04934</v>
-      </c>
-      <c r="H12">
-        <v>1651728992.04934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1651718707.8057759</v>
-      </c>
-      <c r="G13">
-        <v>1651718734.1949871</v>
-      </c>
-      <c r="H13">
-        <v>1651718734.1949871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1651718718.4429879</v>
-      </c>
-      <c r="G14">
-        <v>1651723332.2476311</v>
-      </c>
-      <c r="H14">
-        <v>1651723332.2476311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1651718696.6470339</v>
-      </c>
-      <c r="G15">
-        <v>1651718696.6470339</v>
-      </c>
-      <c r="H15">
-        <v>1651718696.6470339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1651718702.6775329</v>
-      </c>
-      <c r="G16">
-        <v>1651718702.6775329</v>
-      </c>
-      <c r="H16">
-        <v>1651718702.6775329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1651718725.3833549</v>
-      </c>
-      <c r="G17">
-        <v>1651718725.3833549</v>
-      </c>
-      <c r="H17">
-        <v>1651718725.3833549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1651718732.082339</v>
-      </c>
-      <c r="G18">
-        <v>1651718732.082339</v>
-      </c>
-      <c r="H18">
-        <v>1651718732.082339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1651723329.449342</v>
-      </c>
-      <c r="G19">
-        <v>1651723339.491677</v>
-      </c>
-      <c r="H19">
-        <v>1651723339.491677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1651718755.103461</v>
-      </c>
-      <c r="G20">
-        <v>1651718755.103461</v>
-      </c>
-      <c r="H20">
-        <v>1651718755.103461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1651723336.5955169</v>
-      </c>
-      <c r="G21">
-        <v>1651723344.840905</v>
-      </c>
-      <c r="H21">
-        <v>1651723344.840905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1651723343.2495711</v>
-      </c>
-      <c r="G22">
-        <v>1651723343.2495711</v>
-      </c>
-      <c r="H22">
-        <v>1651723343.2495711</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23">
-        <v>1850</v>
-      </c>
-      <c r="F23">
-        <v>1651761438.3291271</v>
-      </c>
-      <c r="G23">
-        <v>1651761438.33008</v>
-      </c>
-      <c r="H23">
-        <v>1651761438.33008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>1231</v>
-      </c>
-      <c r="F24">
-        <v>1651759043.2238851</v>
-      </c>
-      <c r="G24">
-        <v>1651759043.22489</v>
-      </c>
-      <c r="H24">
-        <v>1651759043.22489</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/FileManager.xlsx
+++ b/FileManager.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>文件列表</t>
   </si>
@@ -42,6 +42,9 @@
     <t>filename</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>label1</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
     <t>文件名</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>标签1</t>
   </si>
   <si>
@@ -144,15 +150,39 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1651719662|0</t>
+  </si>
+  <si>
     <t>design</t>
   </si>
   <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1651718720|0</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>1652272211|0</t>
+  </si>
+  <si>
     <t>__pycache__</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>1652194649|2482</t>
+  </si>
+  <si>
     <t>ConfManager</t>
   </si>
   <si>
@@ -162,12 +192,18 @@
     <t>ConfManager.py</t>
   </si>
   <si>
+    <t>1651720252|0</t>
+  </si>
+  <si>
     <t>DataManager</t>
   </si>
   <si>
     <t>DataManager.py</t>
   </si>
   <si>
+    <t>1651895964|93</t>
+  </si>
+  <si>
     <t>FileManager</t>
   </si>
   <si>
@@ -177,21 +213,33 @@
     <t>FileManager.json</t>
   </si>
   <si>
+    <t>1652270671|6268</t>
+  </si>
+  <si>
     <t>FileManager.py</t>
   </si>
   <si>
+    <t>1652272165|8843</t>
+  </si>
+  <si>
     <t>xlsx</t>
   </si>
   <si>
     <t>FileManager.xlsx</t>
   </si>
   <si>
+    <t>1652270540|1088</t>
+  </si>
+  <si>
     <t>Main</t>
   </si>
   <si>
     <t>Main.py</t>
   </si>
   <si>
+    <t>1651719500|933</t>
+  </si>
+  <si>
     <t>README</t>
   </si>
   <si>
@@ -201,33 +249,51 @@
     <t>README.md</t>
   </si>
   <si>
+    <t>1652272206|5832</t>
+  </si>
+  <si>
     <t>XlManager</t>
   </si>
   <si>
     <t>XlManager.py</t>
   </si>
   <si>
+    <t>1652268571|22405</t>
+  </si>
+  <si>
     <t>html</t>
   </si>
   <si>
     <t>design\design.html</t>
   </si>
   <si>
+    <t>1652268571|3942</t>
+  </si>
+  <si>
     <t>design\design.md</t>
   </si>
   <si>
+    <t>1651718734|0</t>
+  </si>
+  <si>
     <t>f1</t>
   </si>
   <si>
     <t>test\f1</t>
   </si>
   <si>
+    <t>1651723332|0</t>
+  </si>
+  <si>
     <t>f2</t>
   </si>
   <si>
     <t>test\f2</t>
   </si>
   <si>
+    <t>1651718696|0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -237,36 +303,60 @@
     <t>test\1.txt</t>
   </si>
   <si>
+    <t>1651718702|0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>test\2.txt</t>
   </si>
   <si>
+    <t>1651718725|0</t>
+  </si>
+  <si>
     <t>test\f1\1.txt</t>
   </si>
   <si>
+    <t>1651718732|0</t>
+  </si>
+  <si>
     <t>test\f1\2.txt</t>
   </si>
   <si>
+    <t>1651723339|0</t>
+  </si>
+  <si>
     <t>f3</t>
   </si>
   <si>
     <t>test\f2\f3</t>
   </si>
   <si>
+    <t>1651718755|0</t>
+  </si>
+  <si>
     <t>test\f2\1.txt</t>
   </si>
   <si>
+    <t>1651723344|0</t>
+  </si>
+  <si>
     <t>f4</t>
   </si>
   <si>
     <t>test\f2\f3\f4</t>
   </si>
   <si>
+    <t>1651723343|0</t>
+  </si>
+  <si>
     <t>test\f2\f3\f4\1.txt</t>
   </si>
   <si>
+    <t>1652260029|1971</t>
+  </si>
+  <si>
     <t>ConfManager.cpython-37</t>
   </si>
   <si>
@@ -276,18 +366,57 @@
     <t>__pycache__\ConfManager.cpython-37.pyc</t>
   </si>
   <si>
+    <t>1652270697|3994</t>
+  </si>
+  <si>
     <t>FileManager.cpython-37</t>
   </si>
   <si>
     <t>__pycache__\FileManager.cpython-37.pyc</t>
   </si>
   <si>
+    <t>1652272211|4767</t>
+  </si>
+  <si>
     <t>XlManager.cpython-37</t>
   </si>
   <si>
     <t>__pycache__\XlManager.cpython-37.pyc</t>
   </si>
   <si>
+    <t>1652272149|0</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>1652271976|12438</t>
+  </si>
+  <si>
+    <t>1652272132|5830</t>
+  </si>
+  <si>
+    <t>1652272149|4765</t>
+  </si>
+  <si>
+    <t>1652271704|0</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>1652271829|12247</t>
+  </si>
+  <si>
+    <t>1652271644|5722</t>
+  </si>
+  <si>
+    <t>1652271704|4691</t>
+  </si>
+  <si>
+    <t>1652271776|12844</t>
+  </si>
+  <si>
     <t>基础设置</t>
   </si>
   <si>
@@ -300,12 +429,12 @@
     <t>文件后缀白名单</t>
   </si>
   <si>
+    <t>索引构成方式</t>
+  </si>
+  <si>
     <t>起始文件夹</t>
   </si>
   <si>
-    <t>E:\projects\file_manager</t>
-  </si>
-  <si>
     <t>生成列表前自动备份</t>
   </si>
   <si>
@@ -319,18 +448,6 @@
   </si>
   <si>
     <t>不输出文件夹</t>
-  </si>
-  <si>
-    <t>mtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引构成方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,19 +793,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,8 +828,9 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -765,716 +885,1277 @@
       <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="b">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="str">
+        <f>HYPERLINK("design","打开")</f>
+        <v>打开</v>
       </c>
       <c r="L4">
-        <v>1651719445.3821449</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1651719662.321841</v>
+        <v>1651719445</v>
       </c>
       <c r="N4">
-        <v>1651719662.321841</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1651719662</v>
+      </c>
+      <c r="O4">
+        <v>1651719662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="b">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="str">
+        <f>HYPERLINK("test","打开")</f>
+        <v>打开</v>
       </c>
       <c r="L5">
-        <v>1651718652.009073</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1651718720.33845</v>
+        <v>1651718652</v>
       </c>
       <c r="N5">
-        <v>1651718720.33845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1651718720</v>
+      </c>
+      <c r="O5">
+        <v>1651718720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="b">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="str">
+        <f>HYPERLINK("__pycache__","打开")</f>
+        <v>打开</v>
       </c>
       <c r="L6">
-        <v>1651722869.3692961</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1652194099.582958</v>
+        <v>1651722869</v>
       </c>
       <c r="N6">
-        <v>1652194099.582958</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1652272211</v>
+      </c>
+      <c r="O6">
+        <v>1652272211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7"/>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="str">
+        <f>HYPERLINK("ConfManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L7">
+        <v>2482</v>
+      </c>
+      <c r="M7">
+        <v>1651720283</v>
+      </c>
+      <c r="N7">
+        <v>1652194649</v>
+      </c>
+      <c r="O7">
+        <v>1652194649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8"/>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="str">
+        <f>HYPERLINK("DataManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1651720302</v>
+      </c>
+      <c r="N8">
+        <v>1651720252</v>
+      </c>
+      <c r="O8">
+        <v>1651720302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9"/>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="str">
+        <f>HYPERLINK("FileManager.json","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L9">
+        <v>93</v>
+      </c>
+      <c r="M9">
+        <v>1651895553</v>
+      </c>
+      <c r="N9">
+        <v>1651895964</v>
+      </c>
+      <c r="O9">
+        <v>1651895964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10"/>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="str">
+        <f>HYPERLINK("FileManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L10">
+        <v>6268</v>
+      </c>
+      <c r="M10">
+        <v>1651720291</v>
+      </c>
+      <c r="N10">
+        <v>1652270671</v>
+      </c>
+      <c r="O10">
+        <v>1652270671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="str">
+        <f>HYPERLINK("FileManager.xlsx","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L11">
+        <v>8843</v>
+      </c>
+      <c r="M11">
+        <v>1652261358</v>
+      </c>
+      <c r="N11">
+        <v>1652272165</v>
+      </c>
+      <c r="O11">
+        <v>1652272165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12"/>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="str">
+        <f>HYPERLINK("Main.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L12">
+        <v>1088</v>
+      </c>
+      <c r="M12">
+        <v>1651720252</v>
+      </c>
+      <c r="N12">
+        <v>1652270540</v>
+      </c>
+      <c r="O12">
+        <v>1652270540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13"/>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="str">
+        <f>HYPERLINK("README.md","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L13">
+        <v>933</v>
+      </c>
+      <c r="M13">
+        <v>1651719500</v>
+      </c>
+      <c r="N13">
+        <v>1651719500</v>
+      </c>
+      <c r="O13">
+        <v>1651719500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="str">
+        <f>HYPERLINK("XlManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L14">
+        <v>5832</v>
+      </c>
+      <c r="M14">
+        <v>1651720269</v>
+      </c>
+      <c r="N14">
+        <v>1652272206</v>
+      </c>
+      <c r="O14">
+        <v>1652272206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C15"/>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="str">
+        <f>HYPERLINK("design\design.html","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L15">
+        <v>22405</v>
+      </c>
+      <c r="M15">
+        <v>1651719662</v>
+      </c>
+      <c r="N15">
+        <v>1652268571</v>
+      </c>
+      <c r="O15">
+        <v>1652268571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16"/>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="str">
+        <f>HYPERLINK("design\design.md","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L16">
+        <v>3942</v>
+      </c>
+      <c r="M16">
+        <v>1651719461</v>
+      </c>
+      <c r="N16">
+        <v>1652268571</v>
+      </c>
+      <c r="O16">
+        <v>1652268571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7">
-        <v>2414</v>
-      </c>
-      <c r="L7">
-        <v>1651720283.583035</v>
-      </c>
-      <c r="M7">
-        <v>1652193787.7603431</v>
-      </c>
-      <c r="N7">
-        <v>1652193787.7603431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="str">
+        <f>HYPERLINK("test\f1","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1651718707</v>
+      </c>
+      <c r="N17">
+        <v>1651718734</v>
+      </c>
+      <c r="O17">
+        <v>1651718734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1651720302.894995</v>
-      </c>
-      <c r="M8">
-        <v>1651720252.3080621</v>
-      </c>
-      <c r="N8">
-        <v>1651720302.894995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="str">
+        <f>HYPERLINK("test\f2","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1651718718</v>
+      </c>
+      <c r="N18">
+        <v>1651723332</v>
+      </c>
+      <c r="O18">
+        <v>1651723332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19"/>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="str">
+        <f>HYPERLINK("test\1.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1651718696</v>
+      </c>
+      <c r="N19">
+        <v>1651718696</v>
+      </c>
+      <c r="O19">
+        <v>1651718696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20"/>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="str">
+        <f>HYPERLINK("test\2.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1651718702</v>
+      </c>
+      <c r="N20">
+        <v>1651718702</v>
+      </c>
+      <c r="O20">
+        <v>1651718702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21"/>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="str">
+        <f>HYPERLINK("test\f1\1.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1651718725</v>
+      </c>
+      <c r="N21">
+        <v>1651718725</v>
+      </c>
+      <c r="O21">
+        <v>1651718725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22"/>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="str">
+        <f>HYPERLINK("test\f1\2.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1651718732</v>
+      </c>
+      <c r="N22">
+        <v>1651718732</v>
+      </c>
+      <c r="O22">
+        <v>1651718732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" t="str">
+        <f>HYPERLINK("test\f2\f3","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1651723329</v>
+      </c>
+      <c r="N23">
+        <v>1651723339</v>
+      </c>
+      <c r="O23">
+        <v>1651723339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24"/>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="str">
+        <f>HYPERLINK("test\f2\1.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1651718755</v>
+      </c>
+      <c r="N24">
+        <v>1651718755</v>
+      </c>
+      <c r="O24">
+        <v>1651718755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" t="str">
+        <f>HYPERLINK("test\f2\f3\f4","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1651723336</v>
+      </c>
+      <c r="N25">
+        <v>1651723344</v>
+      </c>
+      <c r="O25">
+        <v>1651723344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26"/>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" t="str">
+        <f>HYPERLINK("test\f2\f3\f4\1.txt","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1651723343</v>
+      </c>
+      <c r="N26">
+        <v>1651723343</v>
+      </c>
+      <c r="O26">
+        <v>1651723343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27"/>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="str">
+        <f>HYPERLINK("__pycache__\ConfManager.cpython-37.pyc","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L27">
+        <v>1971</v>
+      </c>
+      <c r="M27">
+        <v>1652260029</v>
+      </c>
+      <c r="N27">
+        <v>1652260029</v>
+      </c>
+      <c r="O27">
+        <v>1652260029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28"/>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" t="str">
+        <f>HYPERLINK("__pycache__\FileManager.cpython-37.pyc","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L28">
+        <v>3994</v>
+      </c>
+      <c r="M28">
+        <v>1652270697</v>
+      </c>
+      <c r="N28">
+        <v>1652270697</v>
+      </c>
+      <c r="O28">
+        <v>1652270697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" t="str">
+        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L29">
+        <v>4767</v>
+      </c>
+      <c r="M29">
+        <v>1652272211</v>
+      </c>
+      <c r="N29">
+        <v>1652272211</v>
+      </c>
+      <c r="O29">
+        <v>1652272211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="K9">
-        <v>93</v>
-      </c>
-      <c r="L9">
-        <v>1651895553.7350121</v>
-      </c>
-      <c r="M9">
-        <v>1651895964.0843921</v>
-      </c>
-      <c r="N9">
-        <v>1651895964.0843921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10">
-        <v>3753</v>
-      </c>
-      <c r="L10">
-        <v>1651720291.683419</v>
-      </c>
-      <c r="M10">
-        <v>1651909288.3643091</v>
-      </c>
-      <c r="N10">
-        <v>1651909288.3643091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>13583</v>
-      </c>
-      <c r="L11">
-        <v>1652184034.2119601</v>
-      </c>
-      <c r="M11">
-        <v>1652194334.247541</v>
-      </c>
-      <c r="N11">
-        <v>1652194334.247541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" t="str">
+        <f>HYPERLINK("__pycache__","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1651722869</v>
+      </c>
+      <c r="N30">
+        <v>1652272149</v>
+      </c>
+      <c r="O30">
+        <v>1652272149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="str">
+        <f>HYPERLINK("FileManager.xlsx","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L31">
+        <v>12438</v>
+      </c>
+      <c r="M31">
+        <v>1652261358</v>
+      </c>
+      <c r="N31">
+        <v>1652271976</v>
+      </c>
+      <c r="O31">
+        <v>1652271976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12">
-        <v>895</v>
-      </c>
-      <c r="L12">
-        <v>1651720252.3080621</v>
-      </c>
-      <c r="M12">
-        <v>1652193901.3015511</v>
-      </c>
-      <c r="N12">
-        <v>1652193901.3015511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13">
-        <v>933</v>
-      </c>
-      <c r="L13">
-        <v>1651719500.4714789</v>
-      </c>
-      <c r="M13">
-        <v>1651719500.4714789</v>
-      </c>
-      <c r="N13">
-        <v>1651719500.4714789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" t="str">
+        <f>HYPERLINK("XlManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L32">
+        <v>5830</v>
+      </c>
+      <c r="M32">
+        <v>1651720269</v>
+      </c>
+      <c r="N32">
+        <v>1652272132</v>
+      </c>
+      <c r="O32">
+        <v>1652272132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" t="str">
+        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L33">
+        <v>4765</v>
+      </c>
+      <c r="M33">
+        <v>1652272149</v>
+      </c>
+      <c r="N33">
+        <v>1652272149</v>
+      </c>
+      <c r="O33">
+        <v>1652272149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="str">
+        <f>HYPERLINK("__pycache__","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>1651722869</v>
+      </c>
+      <c r="N34">
+        <v>1652271704</v>
+      </c>
+      <c r="O34">
+        <v>1652271704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="K14">
-        <v>4034</v>
-      </c>
-      <c r="L14">
-        <v>1651720269.1769841</v>
-      </c>
-      <c r="M14">
-        <v>1652194035.64147</v>
-      </c>
-      <c r="N14">
-        <v>1652194035.64147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15">
-        <v>20240</v>
-      </c>
-      <c r="L15">
-        <v>1651719662.321841</v>
-      </c>
-      <c r="M15">
-        <v>1652193756.2025211</v>
-      </c>
-      <c r="N15">
-        <v>1652193756.2025211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>2861</v>
-      </c>
-      <c r="L16">
-        <v>1651719461.2694299</v>
-      </c>
-      <c r="M16">
-        <v>1652193756.07287</v>
-      </c>
-      <c r="N16">
-        <v>1652193756.07287</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1651718707.8057759</v>
-      </c>
-      <c r="M17">
-        <v>1651718734.1949871</v>
-      </c>
-      <c r="N17">
-        <v>1651718734.1949871</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
         <v>63</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
         <v>64</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>1651718718.4429879</v>
-      </c>
-      <c r="M18">
-        <v>1651723332.2476311</v>
-      </c>
-      <c r="N18">
-        <v>1651723332.2476311</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1651718696.6470339</v>
-      </c>
-      <c r="M19">
-        <v>1651718696.6470339</v>
-      </c>
-      <c r="N19">
-        <v>1651718696.6470339</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1651718702.6775329</v>
-      </c>
-      <c r="M20">
-        <v>1651718702.6775329</v>
-      </c>
-      <c r="N20">
-        <v>1651718702.6775329</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1651718725.3833549</v>
-      </c>
-      <c r="M21">
-        <v>1651718725.3833549</v>
-      </c>
-      <c r="N21">
-        <v>1651718725.3833549</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1651718732.082339</v>
-      </c>
-      <c r="M22">
-        <v>1651718732.082339</v>
-      </c>
-      <c r="N22">
-        <v>1651718732.082339</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K35" t="str">
+        <f>HYPERLINK("FileManager.xlsx","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L35">
+        <v>12247</v>
+      </c>
+      <c r="M35">
+        <v>1652261358</v>
+      </c>
+      <c r="N35">
+        <v>1652271829</v>
+      </c>
+      <c r="O35">
+        <v>1652271829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1651723329.449342</v>
-      </c>
-      <c r="M23">
-        <v>1651723339.491677</v>
-      </c>
-      <c r="N23">
-        <v>1651723339.491677</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
         <v>74</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>1651718755.103461</v>
-      </c>
-      <c r="M24">
-        <v>1651718755.103461</v>
-      </c>
-      <c r="N24">
-        <v>1651718755.103461</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1651723336.5955169</v>
-      </c>
-      <c r="M25">
-        <v>1651723344.840905</v>
-      </c>
-      <c r="N25">
-        <v>1651723344.840905</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1651723343.2495711</v>
-      </c>
-      <c r="M26">
-        <v>1651723343.2495711</v>
-      </c>
-      <c r="N26">
-        <v>1651723343.2495711</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27">
-        <v>1942</v>
-      </c>
-      <c r="L27">
-        <v>1652194099.5496161</v>
-      </c>
-      <c r="M27">
-        <v>1652194099.5496161</v>
-      </c>
-      <c r="N27">
-        <v>1652194099.5496161</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28">
-        <v>2261</v>
-      </c>
-      <c r="L28">
-        <v>1651909589.182369</v>
-      </c>
-      <c r="M28">
-        <v>1651909589.1833661</v>
-      </c>
-      <c r="N28">
-        <v>1651909589.1833661</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29">
-        <v>3651</v>
-      </c>
-      <c r="L29">
-        <v>1652194099.582958</v>
-      </c>
-      <c r="M29">
-        <v>1652194099.582958</v>
-      </c>
-      <c r="N29">
-        <v>1652194099.582958</v>
+      <c r="K36" t="str">
+        <f>HYPERLINK("XlManager.py","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L36">
+        <v>5722</v>
+      </c>
+      <c r="M36">
+        <v>1651720269</v>
+      </c>
+      <c r="N36">
+        <v>1652271644</v>
+      </c>
+      <c r="O36">
+        <v>1652271644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" t="str">
+        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L37">
+        <v>4691</v>
+      </c>
+      <c r="M37">
+        <v>1652271704</v>
+      </c>
+      <c r="N37">
+        <v>1652271704</v>
+      </c>
+      <c r="O37">
+        <v>1652271704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="str">
+        <f>HYPERLINK("FileManager.xlsx","打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L38">
+        <v>12844</v>
+      </c>
+      <c r="M38">
+        <v>1652261358</v>
+      </c>
+      <c r="N38">
+        <v>1652271776</v>
+      </c>
+      <c r="O38">
+        <v>1652271776</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +2169,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1507,68 +2188,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -1576,7 +2255,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -1584,7 +2263,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>

--- a/FileManager.xlsx
+++ b/FileManager.xlsx
@@ -16,12 +16,14 @@
     <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list!$A$3:$S$3</definedName>
     <definedName name="AUTO_BACKUP">config!$B$3</definedName>
     <definedName name="BASE_FOLDER">config!$B$2</definedName>
     <definedName name="NO_FOLDERS">config!$B$8</definedName>
     <definedName name="NO_HIDDEN_FILES_POINT">config!$B$7</definedName>
     <definedName name="NO_HIDDEN_FILES_WIN">config!$B$6</definedName>
     <definedName name="rEXT_BLACKLIST">config!$F:$F</definedName>
+    <definedName name="rEXT_TO_TYPE">config!$L:$M</definedName>
     <definedName name="rEXT_WHITELIST">config!$H:$H</definedName>
     <definedName name="rIGNORE_FOLDERS">config!$D:$D</definedName>
     <definedName name="rKEY_MODE">config!$J:$J</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
   <si>
     <t>文件列表</t>
   </si>
@@ -150,271 +152,385 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1651719445|0</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:57:25</t>
+  </si>
+  <si>
+    <t>2022-05-11 20:36:18</t>
+  </si>
+  <si>
+    <t>1651718652|0</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:44:12</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:20</t>
+  </si>
+  <si>
+    <t>1651722869|0</t>
+  </si>
+  <si>
+    <t>__pycache__</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:54:29</t>
+  </si>
+  <si>
+    <t>2022-05-13 14:27:23</t>
+  </si>
+  <si>
+    <t>1651720283|2482</t>
+  </si>
+  <si>
+    <t>ConfManager</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>ConfManager.py</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:11:23</t>
+  </si>
+  <si>
+    <t>2022-05-10 22:57:29</t>
+  </si>
+  <si>
+    <t>1651720302|0</t>
+  </si>
+  <si>
+    <t>DataManager</t>
+  </si>
+  <si>
+    <t>DataManager.py</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:11:42</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:10:52</t>
+  </si>
+  <si>
+    <t>1651895553|93</t>
+  </si>
+  <si>
+    <t>FileManager</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>FileManager.json</t>
+  </si>
+  <si>
+    <t>2022-05-07 11:52:33</t>
+  </si>
+  <si>
+    <t>2022-05-07 11:59:24</t>
+  </si>
+  <si>
+    <t>1651720291|6268</t>
+  </si>
+  <si>
+    <t>FileManager.py</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:11:31</t>
+  </si>
+  <si>
+    <t>2022-05-11 20:04:31</t>
+  </si>
+  <si>
+    <t>1652261358|18699</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>FileManager.xlsx</t>
+  </si>
+  <si>
+    <t>2022-05-11 17:29:18</t>
+  </si>
+  <si>
+    <t>2022-05-13 14:27:18</t>
+  </si>
+  <si>
+    <t>1651720252|1020</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Main.py</t>
+  </si>
+  <si>
+    <t>2022-05-11 20:34:25</t>
+  </si>
+  <si>
+    <t>1651719500|933</t>
+  </si>
+  <si>
+    <t>README</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>README.md</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:58:20</t>
+  </si>
+  <si>
+    <t>1651720269|6883</t>
+  </si>
+  <si>
+    <t>XlManager</t>
+  </si>
+  <si>
+    <t>XlManager.py</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:11:09</t>
+  </si>
+  <si>
+    <t>2022-05-13 14:26:33</t>
+  </si>
+  <si>
+    <t>1651719662|22405</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>design\design.html</t>
+  </si>
+  <si>
+    <t>2022-05-05 11:01:02</t>
+  </si>
+  <si>
+    <t>2022-05-11 20:36:29</t>
+  </si>
+  <si>
+    <t>1651719461|3942</t>
+  </si>
+  <si>
+    <t>design\design.md</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:57:41</t>
+  </si>
+  <si>
+    <t>1652272578|439</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>design\issue.md</t>
+  </si>
+  <si>
+    <t>2022-05-13 13:50:33</t>
+  </si>
+  <si>
+    <t>1651718707|0</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>test\f1</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:07</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:34</t>
+  </si>
+  <si>
+    <t>1651718718|0</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>test\f2</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:18</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:12</t>
+  </si>
+  <si>
+    <t>1651718696|0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>test\1.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:44:56</t>
+  </si>
+  <si>
+    <t>1651718702|0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test\2.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:02</t>
+  </si>
+  <si>
+    <t>1651718725|0</t>
+  </si>
+  <si>
+    <t>test\f1\1.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:25</t>
+  </si>
+  <si>
+    <t>1651718732|0</t>
+  </si>
+  <si>
+    <t>test\f1\2.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:32</t>
+  </si>
+  <si>
+    <t>1651723329|0</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>test\f2\f3</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:09</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:19</t>
+  </si>
+  <si>
+    <t>1651718755|0</t>
+  </si>
+  <si>
+    <t>test\f2\1.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 10:45:55</t>
+  </si>
+  <si>
+    <t>1651723336|0</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>test\f2\f3\f4</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:16</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:24</t>
+  </si>
+  <si>
+    <t>1651723343|0</t>
+  </si>
+  <si>
+    <t>test\f2\f3\f4\1.txt</t>
+  </si>
+  <si>
+    <t>2022-05-05 12:02:23</t>
+  </si>
+  <si>
+    <t>1652260029|1971</t>
+  </si>
+  <si>
+    <t>ConfManager.cpython-37</t>
+  </si>
+  <si>
+    <t>pyc</t>
+  </si>
+  <si>
+    <t>__pycache__\ConfManager.cpython-37.pyc</t>
+  </si>
+  <si>
+    <t>2022-05-11 17:07:09</t>
+  </si>
+  <si>
+    <t>1652270697|3994</t>
+  </si>
+  <si>
+    <t>FileManager.cpython-37</t>
+  </si>
+  <si>
+    <t>__pycache__\FileManager.cpython-37.pyc</t>
+  </si>
+  <si>
+    <t>2022-05-11 20:04:57</t>
+  </si>
+  <si>
+    <t>1652423243|5409</t>
+  </si>
+  <si>
+    <t>XlManager.cpython-37</t>
+  </si>
+  <si>
+    <t>__pycache__\XlManager.cpython-37.pyc</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>1651718720|0</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>1651719662|0</t>
   </si>
   <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>1651718720|0</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>1652272211|0</t>
-  </si>
-  <si>
-    <t>__pycache__</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>1652194649|2482</t>
-  </si>
-  <si>
-    <t>ConfManager</t>
-  </si>
-  <si>
-    <t>py</t>
-  </si>
-  <si>
-    <t>ConfManager.py</t>
-  </si>
-  <si>
-    <t>1651720252|0</t>
-  </si>
-  <si>
-    <t>DataManager</t>
-  </si>
-  <si>
-    <t>DataManager.py</t>
-  </si>
-  <si>
-    <t>1651895964|93</t>
-  </si>
-  <si>
-    <t>FileManager</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>FileManager.json</t>
-  </si>
-  <si>
-    <t>1652270671|6268</t>
-  </si>
-  <si>
-    <t>FileManager.py</t>
-  </si>
-  <si>
-    <t>1652272165|8843</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>FileManager.xlsx</t>
-  </si>
-  <si>
-    <t>1652270540|1088</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Main.py</t>
-  </si>
-  <si>
-    <t>1651719500|933</t>
-  </si>
-  <si>
-    <t>README</t>
-  </si>
-  <si>
-    <t>md</t>
-  </si>
-  <si>
-    <t>README.md</t>
-  </si>
-  <si>
-    <t>1652272206|5832</t>
-  </si>
-  <si>
-    <t>XlManager</t>
-  </si>
-  <si>
-    <t>XlManager.py</t>
-  </si>
-  <si>
-    <t>1652268571|22405</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>design\design.html</t>
-  </si>
-  <si>
-    <t>1652268571|3942</t>
-  </si>
-  <si>
-    <t>design\design.md</t>
-  </si>
-  <si>
-    <t>1651718734|0</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>test\f1</t>
-  </si>
-  <si>
-    <t>1651723332|0</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>test\f2</t>
-  </si>
-  <si>
-    <t>1651718696|0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>txt</t>
-  </si>
-  <si>
-    <t>test\1.txt</t>
-  </si>
-  <si>
-    <t>1651718702|0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>test\2.txt</t>
-  </si>
-  <si>
-    <t>1651718725|0</t>
-  </si>
-  <si>
-    <t>test\f1\1.txt</t>
-  </si>
-  <si>
-    <t>1651718732|0</t>
-  </si>
-  <si>
-    <t>test\f1\2.txt</t>
-  </si>
-  <si>
-    <t>1651723339|0</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>test\f2\f3</t>
-  </si>
-  <si>
-    <t>1651718755|0</t>
-  </si>
-  <si>
-    <t>test\f2\1.txt</t>
-  </si>
-  <si>
-    <t>1651723344|0</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>test\f2\f3\f4</t>
-  </si>
-  <si>
-    <t>1651723343|0</t>
-  </si>
-  <si>
-    <t>test\f2\f3\f4\1.txt</t>
-  </si>
-  <si>
-    <t>1652260029|1971</t>
-  </si>
-  <si>
-    <t>ConfManager.cpython-37</t>
-  </si>
-  <si>
-    <t>pyc</t>
-  </si>
-  <si>
-    <t>__pycache__\ConfManager.cpython-37.pyc</t>
-  </si>
-  <si>
-    <t>1652270697|3994</t>
-  </si>
-  <si>
-    <t>FileManager.cpython-37</t>
-  </si>
-  <si>
-    <t>__pycache__\FileManager.cpython-37.pyc</t>
-  </si>
-  <si>
-    <t>1652272211|4767</t>
-  </si>
-  <si>
-    <t>XlManager.cpython-37</t>
-  </si>
-  <si>
-    <t>__pycache__\XlManager.cpython-37.pyc</t>
-  </si>
-  <si>
-    <t>1652272149|0</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>1652271976|12438</t>
-  </si>
-  <si>
-    <t>1652272132|5830</t>
-  </si>
-  <si>
-    <t>1652272149|4765</t>
-  </si>
-  <si>
     <t>1652271704|0</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>1652271829|12247</t>
-  </si>
-  <si>
-    <t>1652271644|5722</t>
-  </si>
-  <si>
-    <t>1652271704|4691</t>
-  </si>
-  <si>
-    <t>1652271776|12844</t>
+    <t>2022-05-11 20:21:44</t>
   </si>
   <si>
     <t>基础设置</t>
@@ -423,10 +539,10 @@
     <t>忽略的文件夹</t>
   </si>
   <si>
-    <t>文件后缀黑名单</t>
-  </si>
-  <si>
-    <t>文件后缀白名单</t>
+    <t>文件扩展名黑名单</t>
+  </si>
+  <si>
+    <t>文件扩展名白名单</t>
   </si>
   <si>
     <t>索引构成方式</t>
@@ -435,19 +551,37 @@
     <t>起始文件夹</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>生成列表前自动备份</t>
   </si>
   <si>
+    <t>网页</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
     <t>隐藏文件</t>
   </si>
   <si>
+    <t>Excel</t>
+  </si>
+  <si>
     <t>排除隐藏文件（Windows）</t>
   </si>
   <si>
+    <t>文档</t>
+  </si>
+  <si>
     <t>排除.开头的文件及文件夹</t>
   </si>
   <si>
     <t>不输出文件夹</t>
+  </si>
+  <si>
+    <t>程序</t>
   </si>
 </sst>
 </file>
@@ -505,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,6 +647,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -793,11 +928,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -899,13 +1034,13 @@
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -944,7 +1079,7 @@
       <c r="R3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -958,17 +1093,18 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I30" si="0">IF(G4="","",VLOOKUP(G4,rEXT_TO_TYPE,2,))</f>
+        <v/>
+      </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
       <c r="K4" t="str">
-        <f>HYPERLINK("design","打开")</f>
+        <f t="shared" ref="K4:K30" si="1">HYPERLINK(J4,"打开")</f>
         <v>打开</v>
       </c>
       <c r="L4">
@@ -978,33 +1114,43 @@
         <v>1651719445</v>
       </c>
       <c r="N4">
-        <v>1651719662</v>
+        <v>1652272578</v>
       </c>
       <c r="O4">
-        <v>1651719662</v>
+        <v>1652272578</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" t="str">
-        <f>HYPERLINK("test","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L5">
@@ -1019,25 +1165,38 @@
       <c r="O5">
         <v>1651718720</v>
       </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" t="str">
-        <f>HYPERLINK("__pycache__","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L6">
@@ -1047,31 +1206,44 @@
         <v>1651722869</v>
       </c>
       <c r="N6">
-        <v>1652272211</v>
+        <v>1652423243</v>
       </c>
       <c r="O6">
-        <v>1652272211</v>
+        <v>1652423243</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7"/>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>代码</v>
+      </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K7" t="str">
-        <f>HYPERLINK("ConfManager.py","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L7">
@@ -1086,26 +1258,39 @@
       <c r="O7">
         <v>1652194649</v>
       </c>
+      <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C8"/>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>代码</v>
+      </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K8" t="str">
-        <f>HYPERLINK("DataManager.py","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L8">
@@ -1120,26 +1305,39 @@
       <c r="O8">
         <v>1651720302</v>
       </c>
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C9"/>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>数据</v>
+      </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K9" t="str">
-        <f>HYPERLINK("FileManager.json","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L9">
@@ -1154,26 +1352,39 @@
       <c r="O9">
         <v>1651895964</v>
       </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C10"/>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>代码</v>
+      </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K10" t="str">
-        <f>HYPERLINK("FileManager.py","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L10">
@@ -1188,96 +1399,135 @@
       <c r="O10">
         <v>1652270671</v>
       </c>
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>Excel</v>
+      </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K11" t="str">
-        <f>HYPERLINK("FileManager.xlsx","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L11">
-        <v>8843</v>
+        <v>18699</v>
       </c>
       <c r="M11">
         <v>1652261358</v>
       </c>
       <c r="N11">
-        <v>1652272165</v>
+        <v>1652423238</v>
       </c>
       <c r="O11">
-        <v>1652272165</v>
+        <v>1652423238</v>
+      </c>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C12"/>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>代码</v>
+      </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K12" t="str">
-        <f>HYPERLINK("Main.py","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L12">
-        <v>1088</v>
+        <v>1020</v>
       </c>
       <c r="M12">
         <v>1651720252</v>
       </c>
       <c r="N12">
-        <v>1652270540</v>
+        <v>1652272465</v>
       </c>
       <c r="O12">
-        <v>1652270540</v>
+        <v>1652272465</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C13"/>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K13" t="str">
-        <f>HYPERLINK("README.md","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L13">
@@ -1292,62 +1542,88 @@
       <c r="O13">
         <v>1651719500</v>
       </c>
+      <c r="P13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>代码</v>
+      </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K14" t="str">
-        <f>HYPERLINK("XlManager.py","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L14">
-        <v>5832</v>
+        <v>6883</v>
       </c>
       <c r="M14">
         <v>1651720269</v>
       </c>
       <c r="N14">
-        <v>1652272206</v>
+        <v>1652423193</v>
       </c>
       <c r="O14">
-        <v>1652272206</v>
+        <v>1652423193</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15"/>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>网页</v>
+      </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K15" t="str">
-        <f>HYPERLINK("design\design.html","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L15">
@@ -1357,31 +1633,44 @@
         <v>1651719662</v>
       </c>
       <c r="N15">
-        <v>1652268571</v>
+        <v>1652272589</v>
       </c>
       <c r="O15">
-        <v>1652268571</v>
+        <v>1652272589</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16"/>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K16" t="str">
-        <f>HYPERLINK("design\design.md","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L16">
@@ -1391,51 +1680,74 @@
         <v>1651719461</v>
       </c>
       <c r="N16">
-        <v>1652268571</v>
+        <v>1652272589</v>
       </c>
       <c r="O16">
-        <v>1652268571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1652272589</v>
+      </c>
+      <c r="P16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
+        <v>102</v>
+      </c>
+      <c r="C17"/>
+      <c r="G17" t="s">
+        <v>85</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K17" t="str">
-        <f>HYPERLINK("test\f1","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="M17">
-        <v>1651718707</v>
+        <v>1652272578</v>
       </c>
       <c r="N17">
-        <v>1651718734</v>
+        <v>1652421033</v>
       </c>
       <c r="O17">
-        <v>1651718734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1652421033</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1443,722 +1755,751 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="K18" t="str">
-        <f>HYPERLINK("test\f2","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
+        <v>1651718707</v>
+      </c>
+      <c r="N18">
+        <v>1651718734</v>
+      </c>
+      <c r="O18">
+        <v>1651718734</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>1651718718</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>1651723332</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>1651723332</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19"/>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" t="str">
-        <f>HYPERLINK("test\1.txt","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1651718696</v>
-      </c>
-      <c r="N19">
-        <v>1651718696</v>
-      </c>
-      <c r="O19">
-        <v>1651718696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C20"/>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="K20" t="str">
-        <f>HYPERLINK("test\2.txt","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1651718702</v>
+        <v>1651718696</v>
       </c>
       <c r="N20">
-        <v>1651718702</v>
+        <v>1651718696</v>
       </c>
       <c r="O20">
-        <v>1651718702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1651718696</v>
+      </c>
+      <c r="P20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C21"/>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="K21" t="str">
-        <f>HYPERLINK("test\f1\1.txt","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1651718725</v>
+        <v>1651718702</v>
       </c>
       <c r="N21">
-        <v>1651718725</v>
+        <v>1651718702</v>
       </c>
       <c r="O21">
-        <v>1651718725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1651718702</v>
+      </c>
+      <c r="P21" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C22"/>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="K22" t="str">
-        <f>HYPERLINK("test\f1\2.txt","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
+        <v>1651718725</v>
+      </c>
+      <c r="N22">
+        <v>1651718725</v>
+      </c>
+      <c r="O22">
+        <v>1651718725</v>
+      </c>
+      <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>126</v>
+      </c>
+      <c r="R22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23"/>
+      <c r="G23" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>1651718732</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>1651718732</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>1651718732</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="b">
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" t="str">
-        <f>HYPERLINK("test\f2\f3","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>1651723329</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>1651723339</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>1651723339</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24"/>
-      <c r="G24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" t="str">
-        <f>HYPERLINK("test\f2\1.txt","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="P24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25"/>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>1651718755</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>1651718755</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>1651718755</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="P25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="b">
+      <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
-        <v>104</v>
-      </c>
-      <c r="K25" t="str">
-        <f>HYPERLINK("test\f2\f3\f4","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>1651723336</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>1651723344</v>
       </c>
-      <c r="O25">
+      <c r="O26">
         <v>1651723344</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26"/>
-      <c r="G26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" t="str">
-        <f>HYPERLINK("test\f2\f3\f4\1.txt","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1651723343</v>
-      </c>
-      <c r="N26">
-        <v>1651723343</v>
-      </c>
-      <c r="O26">
-        <v>1651723343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C27"/>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>文档</v>
+      </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="K27" t="str">
-        <f>HYPERLINK("__pycache__\ConfManager.cpython-37.pyc","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L27">
-        <v>1971</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1652260029</v>
+        <v>1651723343</v>
       </c>
       <c r="N27">
-        <v>1652260029</v>
+        <v>1651723343</v>
       </c>
       <c r="O27">
-        <v>1652260029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1651723343</v>
+      </c>
+      <c r="P27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>145</v>
+      </c>
+      <c r="R27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C28"/>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>程序</v>
+      </c>
       <c r="J28" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="K28" t="str">
-        <f>HYPERLINK("__pycache__\FileManager.cpython-37.pyc","打开")</f>
+        <f t="shared" si="1"/>
         <v>打开</v>
       </c>
       <c r="L28">
+        <v>1971</v>
+      </c>
+      <c r="M28">
+        <v>1652260029</v>
+      </c>
+      <c r="N28">
+        <v>1652260029</v>
+      </c>
+      <c r="O28">
+        <v>1652260029</v>
+      </c>
+      <c r="P28" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>150</v>
+      </c>
+      <c r="R28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29"/>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>程序</v>
+      </c>
+      <c r="J29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L29">
         <v>3994</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>1652270697</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>1652270697</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>1652270697</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" t="str">
-        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L29">
-        <v>4767</v>
-      </c>
-      <c r="M29">
-        <v>1652272211</v>
-      </c>
-      <c r="N29">
-        <v>1652272211</v>
-      </c>
-      <c r="O29">
-        <v>1652272211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>154</v>
+      </c>
+      <c r="R29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>程序</v>
+      </c>
+      <c r="J30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>打开</v>
+      </c>
+      <c r="L30">
+        <v>5409</v>
+      </c>
+      <c r="M30">
+        <v>1652423243</v>
+      </c>
+      <c r="N30">
+        <v>1652423243</v>
+      </c>
+      <c r="O30">
+        <v>1652423243</v>
+      </c>
+      <c r="P30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>51</v>
+      </c>
+      <c r="R30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ref="I31:I32" si="2">IF(G31="","",VLOOKUP(G31,rEXT_TO_TYPE,2,))</f>
+        <v/>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ref="K31:K32" si="3">HYPERLINK(J31,"打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1651718652</v>
+      </c>
+      <c r="N31">
+        <v>1651718720</v>
+      </c>
+      <c r="O31">
+        <v>1651718720</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" t="b">
+      <c r="R31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" t="b">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" t="str">
-        <f>HYPERLINK("__pycache__","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="3"/>
+        <v>打开</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1651719445</v>
+      </c>
+      <c r="N32">
+        <v>1651719662</v>
+      </c>
+      <c r="O32">
+        <v>1651719662</v>
+      </c>
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ref="I33" si="4">IF(G33="","",VLOOKUP(G33,rEXT_TO_TYPE,2,))</f>
+        <v/>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" ref="K33" si="5">HYPERLINK(J33,"打开")</f>
+        <v>打开</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>1651722869</v>
       </c>
-      <c r="N30">
-        <v>1652272149</v>
-      </c>
-      <c r="O30">
-        <v>1652272149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" t="str">
-        <f>HYPERLINK("FileManager.xlsx","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L31">
-        <v>12438</v>
-      </c>
-      <c r="M31">
-        <v>1652261358</v>
-      </c>
-      <c r="N31">
-        <v>1652271976</v>
-      </c>
-      <c r="O31">
-        <v>1652271976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" t="str">
-        <f>HYPERLINK("XlManager.py","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L32">
-        <v>5830</v>
-      </c>
-      <c r="M32">
-        <v>1651720269</v>
-      </c>
-      <c r="N32">
-        <v>1652272132</v>
-      </c>
-      <c r="O32">
-        <v>1652272132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" t="str">
-        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L33">
-        <v>4765</v>
-      </c>
-      <c r="M33">
-        <v>1652272149</v>
-      </c>
       <c r="N33">
-        <v>1652272149</v>
+        <v>1652271704</v>
       </c>
       <c r="O33">
-        <v>1652272149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" t="str">
-        <f>HYPERLINK("__pycache__","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>1651722869</v>
-      </c>
-      <c r="N34">
         <v>1652271704</v>
       </c>
-      <c r="O34">
-        <v>1652271704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>64</v>
-      </c>
-      <c r="K35" t="str">
-        <f>HYPERLINK("FileManager.xlsx","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L35">
-        <v>12247</v>
-      </c>
-      <c r="M35">
-        <v>1652261358</v>
-      </c>
-      <c r="N35">
-        <v>1652271829</v>
-      </c>
-      <c r="O35">
-        <v>1652271829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" t="str">
-        <f>HYPERLINK("XlManager.py","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L36">
-        <v>5722</v>
-      </c>
-      <c r="M36">
-        <v>1651720269</v>
-      </c>
-      <c r="N36">
-        <v>1652271644</v>
-      </c>
-      <c r="O36">
-        <v>1652271644</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" t="str">
-        <f>HYPERLINK("__pycache__\XlManager.cpython-37.pyc","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L37">
-        <v>4691</v>
-      </c>
-      <c r="M37">
-        <v>1652271704</v>
-      </c>
-      <c r="N37">
-        <v>1652271704</v>
-      </c>
-      <c r="O37">
-        <v>1652271704</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>64</v>
-      </c>
-      <c r="K38" t="str">
-        <f>HYPERLINK("FileManager.xlsx","打开")</f>
-        <v>打开</v>
-      </c>
-      <c r="L38">
-        <v>12844</v>
-      </c>
-      <c r="M38">
-        <v>1652261358</v>
-      </c>
-      <c r="N38">
-        <v>1652271776</v>
-      </c>
-      <c r="O38">
-        <v>1652271776</v>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>165</v>
+      </c>
+      <c r="R33" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:S3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2166,11 +2507,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2184,89 +2523,138 @@
     <col min="8" max="8" width="16.25" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/FileManager.xlsx
+++ b/FileManager.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="list" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="list" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="config" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="AUTO_BACKUP">config!$B$3</definedName>
@@ -21,16 +21,16 @@
     <definedName name="rEXT_WHITELIST">config!$H:$H</definedName>
     <definedName name="rIGNORE_KEYWORDS">config!$D:$D</definedName>
     <definedName name="rKEY_MODE">config!$J:$J</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'list'!$A$3:$T$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'list'!$A$3:$R$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -51,6 +51,12 @@
       <family val="3"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,22 +85,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -365,22 +372,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="9.75" customWidth="1" style="4" min="1" max="1"/>
-    <col width="22.5" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="8.6640625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="8.6640625" customWidth="1" style="4" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="4" width="9.75"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="22.5"/>
+    <col customWidth="1" max="5" min="5" style="4" width="8.625"/>
+    <col hidden="1" max="14" min="11" outlineLevel="1" style="4"/>
+    <col collapsed="1" customWidth="1" max="15" min="15" style="4" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
+    <row customFormat="1" r="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>文件列表</t>
@@ -403,10 +411,8 @@
       <c r="P1" s="3" t="n"/>
       <c r="Q1" s="3" t="n"/>
       <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-    </row>
-    <row r="2" customFormat="1" s="2">
+    </row>
+    <row customFormat="1" r="2" s="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>key</t>
@@ -444,71 +450,61 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>label3</t>
+          <t>path</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>label4</t>
+          <t>hyperlink</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>size</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>hyperlink</t>
+          <t>is_folder</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>is_folder</t>
+          <t>ctime</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>mtime</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>ctime</t>
+          <t>atime</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>mtime</t>
+          <t>c_time</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>atime</t>
+          <t>m_time</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>c_time</t>
+          <t>a_time</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
-          <t>m_time</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>a_time</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
           <t>note</t>
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="2">
+    <row customFormat="1" r="3" s="2">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>索引</t>
@@ -544,67 +540,57 @@
           <t>标签2</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>标签3</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>标签4</t>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>文件路径</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>文件链接</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>文件路径</t>
+          <t>文件大小</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>文件链接</t>
+          <t>是文件夹</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>是文件夹</t>
+          <t>创建时间(时间戳)</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>文件大小</t>
+          <t>修改时间(时间戳)</t>
         </is>
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>创建时间(时间戳)</t>
+          <t>访问时间(时间戳)</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>修改时间(时间戳)</t>
+          <t>创建时间</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>访问时间(时间戳)</t>
+          <t>修改时间</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>修改时间</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
           <t>访问时间</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
@@ -613,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1651720283|py</t>
+          <t>1651999922|py</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -627,63 +613,57 @@
         </is>
       </c>
       <c r="D4">
-        <f>IF(C4="","",VLOOKUP(C4,rEXT_TO_TYPE,2,))</f>
+        <f>IFERROR(VLOOKUP(C4,rEXT_TO_TYPE,2,),"")</f>
         <v/>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>呵呵</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>ConfManager.py</t>
         </is>
       </c>
-      <c r="K4">
-        <f>HYPERLINK(J4,"打开")</f>
-        <v/>
-      </c>
-      <c r="L4" t="b">
+      <c r="I4">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H4,"打开")</f>
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v>2788</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M4" t="n">
-        <v>2566</v>
+        <v>1652543679</v>
       </c>
       <c r="N4" t="n">
-        <v>1651720283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1652494266</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1652494266</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2022-05-14 23:54:39</t>
+        </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2022-05-05 11:11:23</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2022-05-14 10:11:06</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2022-05-14 10:11:06</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1651720302|py</t>
+          <t>1651999922|py+1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -697,63 +677,57 @@
         </is>
       </c>
       <c r="D5">
-        <f>IF(C5="","",VLOOKUP(C5,rEXT_TO_TYPE,2,))</f>
+        <f>IFERROR(VLOOKUP(C5,rEXT_TO_TYPE,2,),"")</f>
         <v/>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>哈哈</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>DataManager.py</t>
         </is>
       </c>
-      <c r="K5">
-        <f>HYPERLINK(J5,"打开")</f>
-        <v/>
-      </c>
-      <c r="L5" t="b">
+      <c r="I5">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H5,"打开")</f>
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v>3077</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M5" t="n">
-        <v>3077</v>
+        <v>1652507784</v>
       </c>
       <c r="N5" t="n">
-        <v>1651720302</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1652498193</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1652498193</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2022-05-14 13:56:24</t>
+        </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2022-05-05 11:11:42</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:16:33</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:16:33</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1651720291|py</t>
+          <t>1651999922|py+2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -767,59 +741,57 @@
         </is>
       </c>
       <c r="D6">
-        <f>IF(C6="","",VLOOKUP(C6,rEXT_TO_TYPE,2,))</f>
+        <f>IFERROR(VLOOKUP(C6,rEXT_TO_TYPE,2,),"")</f>
         <v/>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>FileManager.py</t>
         </is>
       </c>
-      <c r="K6">
-        <f>HYPERLINK(J6,"打开")</f>
-        <v/>
-      </c>
-      <c r="L6" t="b">
+      <c r="I6">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H6,"打开")</f>
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v>4892</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M6" t="n">
-        <v>4892</v>
+        <v>1652507784</v>
       </c>
       <c r="N6" t="n">
-        <v>1651720291</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1652495290</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1652495290</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2022-05-14 13:56:24</t>
+        </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2022-05-05 11:11:31</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2022-05-14 10:28:10</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>2022-05-14 10:28:10</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1652261358|xlsx</t>
+          <t>1651999922|xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -833,7 +805,7 @@
         </is>
       </c>
       <c r="D7">
-        <f>IF(C7="","",VLOOKUP(C7,rEXT_TO_TYPE,2,))</f>
+        <f>IFERROR(VLOOKUP(C7,rEXT_TO_TYPE,2,),"")</f>
         <v/>
       </c>
       <c r="E7" t="inlineStr">
@@ -845,55 +817,49 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>好</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>FileManager.xlsx</t>
         </is>
       </c>
-      <c r="K7">
-        <f>HYPERLINK(J7,"打开")</f>
-        <v/>
-      </c>
-      <c r="L7" t="b">
+      <c r="I7">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H7,"打开")</f>
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v>12902</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M7" t="n">
-        <v>12405</v>
+        <v>1652544030</v>
       </c>
       <c r="N7" t="n">
-        <v>1652261358</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1652501993</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1652501993</v>
+        <v>1652544030</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2022-05-15 00:00:30</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2022-05-11 17:29:18</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:19:53</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:19:53</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+          <t>2022-05-15 00:00:30</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1651720252|py</t>
+          <t>1651999922|py+3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -907,7 +873,7 @@
         </is>
       </c>
       <c r="D8">
-        <f>IF(C8="","",VLOOKUP(C8,rEXT_TO_TYPE,2,))</f>
+        <f>IFERROR(VLOOKUP(C8,rEXT_TO_TYPE,2,),"")</f>
         <v/>
       </c>
       <c r="E8" t="inlineStr">
@@ -917,57 +883,51 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>新标签</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Main.py</t>
         </is>
       </c>
-      <c r="K8">
-        <f>HYPERLINK(J8,"打开")</f>
-        <v/>
-      </c>
-      <c r="L8" t="b">
+      <c r="I8">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H8,"打开")</f>
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v>2284</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M8" t="n">
-        <v>2050</v>
+        <v>1652547517</v>
       </c>
       <c r="N8" t="n">
-        <v>1651720252</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1652500622</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1652500622</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2022-05-15 00:58:37</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2022-05-05 11:10:52</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:57:02</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:57:02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1651719500|md</t>
+          <t>1651673965|md</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -981,63 +941,57 @@
         </is>
       </c>
       <c r="D9">
-        <f>IF(C9="","",VLOOKUP(C9,rEXT_TO_TYPE,2,))</f>
-        <v/>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>mod</t>
-        </is>
-      </c>
+        <f>IFERROR(VLOOKUP(C9,rEXT_TO_TYPE,2,),"")</f>
+        <v/>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>README.md</t>
         </is>
       </c>
-      <c r="K9">
-        <f>HYPERLINK(J9,"打开")</f>
-        <v/>
-      </c>
-      <c r="L9" t="b">
+      <c r="I9">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H9,"打开")</f>
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v>1822</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
+      <c r="L9" t="n">
+        <v>1651673965</v>
+      </c>
       <c r="M9" t="n">
-        <v>1824</v>
+        <v>1652507784</v>
       </c>
       <c r="N9" t="n">
-        <v>1651719500</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1652501747</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1652501747</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2022-05-04 22:19:25</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2022-05-14 13:56:24</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2022-05-05 10:58:20</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:15:47</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:15:47</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1651720269|py</t>
+          <t>1651999922|py+4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1051,59 +1005,61 @@
         </is>
       </c>
       <c r="D10">
-        <f>IF(C10="","",VLOOKUP(C10,rEXT_TO_TYPE,2,))</f>
-        <v/>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <f>IFERROR(VLOOKUP(C10,rEXT_TO_TYPE,2,),"")</f>
+        <v/>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>mod</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>XlManager.py</t>
         </is>
       </c>
-      <c r="K10">
-        <f>HYPERLINK(J10,"打开")</f>
-        <v/>
-      </c>
-      <c r="L10" t="b">
+      <c r="I10">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H10,"打开")</f>
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v>7033</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M10" t="n">
-        <v>6920</v>
+        <v>1652547575</v>
       </c>
       <c r="N10" t="n">
-        <v>1651720269</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1652499657</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1652499657</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2022-05-15 00:59:35</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2022-05-05 11:11:09</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:40:57</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:40:57</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1651719461|md</t>
+          <t>1651999922|md</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1117,63 +1073,57 @@
         </is>
       </c>
       <c r="D11">
-        <f>IF(C11="","",VLOOKUP(C11,rEXT_TO_TYPE,2,))</f>
-        <v/>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mod</t>
-        </is>
-      </c>
+        <f>IFERROR(VLOOKUP(C11,rEXT_TO_TYPE,2,),"")</f>
+        <v/>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>design\design.md</t>
         </is>
       </c>
-      <c r="K11">
-        <f>HYPERLINK(J11,"打开")</f>
-        <v/>
-      </c>
-      <c r="L11" t="b">
+      <c r="I11">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H11,"打开")</f>
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v>4569</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>1651999922</v>
+      </c>
       <c r="M11" t="n">
-        <v>4617</v>
+        <v>1652507784</v>
       </c>
       <c r="N11" t="n">
-        <v>1651719461</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1652500811</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1652500811</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2022-05-08 16:52:02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2022-05-14 13:56:24</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2022-05-05 10:57:41</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:00:11</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>2022-05-14 12:00:11</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1652272578|md</t>
+          <t>1652338271|md</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1187,58 +1137,60 @@
         </is>
       </c>
       <c r="D12">
-        <f>IF(C12="","",VLOOKUP(C12,rEXT_TO_TYPE,2,))</f>
-        <v/>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <f>IFERROR(VLOOKUP(C12,rEXT_TO_TYPE,2,),"")</f>
+        <v/>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mod</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>design\issue.md</t>
         </is>
       </c>
-      <c r="K12">
-        <f>HYPERLINK(J12,"打开")</f>
-        <v/>
-      </c>
-      <c r="L12" t="b">
+      <c r="I12">
+        <f>HYPERLINK(BASE_FOLDER&amp;"/"&amp;H12,"打开")</f>
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v>735</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
+      <c r="L12" t="n">
+        <v>1652338271</v>
+      </c>
       <c r="M12" t="n">
-        <v>503</v>
+        <v>1652546526</v>
       </c>
       <c r="N12" t="n">
-        <v>1652272578</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1652498625</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1652498625</v>
+        <v>1652507784</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2022-05-12 14:51:11</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2022-05-15 00:42:06</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2022-05-11 20:36:18</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:23:45</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>2022-05-14 11:23:45</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
+          <t>2022-05-14 13:56:24</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T3"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A3:R3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,23 +1202,23 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col width="26" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="20.83203125" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="2.58203125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="14.33203125" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="2.33203125" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16.25" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="2.1640625" customWidth="1" style="4" min="7" max="7"/>
-    <col width="16.25" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="2.1640625" customWidth="1" style="4" min="9" max="9"/>
-    <col width="16.25" bestFit="1" customWidth="1" style="4" min="10" max="10"/>
-    <col width="2.1640625" customWidth="1" style="4" min="11" max="11"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="26"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="20.875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="2.625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="4" width="14.375"/>
+    <col customWidth="1" max="5" min="5" style="4" width="2.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="4" width="16.25"/>
+    <col customWidth="1" max="7" min="7" style="4" width="2.125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="4" width="16.25"/>
+    <col customWidth="1" max="9" min="9" style="4" width="2.125"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="4" width="16.25"/>
+    <col customWidth="1" max="11" min="11" style="4" width="2.125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1312,7 +1264,11 @@
           <t>起始文件夹</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>G:\git\file_manager</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>__pycache__</t>
@@ -1489,7 +1445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>